--- a/eltiempo.xlsx
+++ b/eltiempo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\PycharmProjects\AnalisisSentiemientosNoticias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\josesanabria\TraduccionLimpieza\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3BD3DD-58C2-4A8A-8DFA-D437339B0D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD61F88-B7D5-440E-80EB-017C18B044F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,87 +20,216 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/se-conocen-nuevas-hipotesis-sobre-los-gases-que-salen-de-la-laderas-de-cerro-bravo-en-la-via-manizales-fresno/202344/
+</t>
+  </si>
+  <si>
+    <t>Atentos: primera gran conclusión sobre gases que emanan de laderas de Cerro Bravo, entre Manizales y Fresno. No son volcánicos</t>
+  </si>
+  <si>
+    <t>Tal como lo había anunciado el Servicio Geológico Colombiano (SGC), el día de ayer (domingo 21 de mayo), realizó análisis geoquímicos para determinar las causas de la anomalía que se está presentando de las laderas del volcán Cerro Bravo.
+Según los resultados de los análisis, el SGC confirmó que esta anomalía no está relacionada con eventos geológicos, y en particular con la actividad del volcán Cerro Bravo o del volcán Nevado del Ruiz, ubicado a aproximadamente 22 km de distancia y en nivel Naranja.
+Gases en la vía Manizales - Fresno no serían originados por el volcán Cerro Bravo
+Al igual que en las mediciones previas, se registraron altas concentraciones de gas metano (CH4), muy superiores a las que este gas suele tener en áreas volcánicas en el país y el mundo. Sumado a esto, no se ha registrado ningún cambio en la actividad del volcán -Cerro Bravo-, el cual hasta el momento continúa estable y se mantiene en nivel de actividad Verde (activo, pero en reposo).
+Adicionalmente, la ausencia de gases de origen volcánico como el dióxido de azufre (SO2) hacen aún más improbable este origen.
+La montaña es conocida como Cerro Bravo y está ubicada antes del Alto de Letras - Foto: Pantallazo video Tik Tok @jery..operador.560
+Entonces, ¿qué causa este fenómeno?
+Aunque se corroboró que en el punto de la anomalía el suelo registra altas temperaturas, cercanas a los 700 grados centígrados, no se encontró ningún indicador que demuestre que estas temperaturas, así como la salida de gases y vapores, tengan relación con la actividad del volcán, pues se encuentran muy focalizados y superficiales.
+Teniendo en cuenta que desde el 13 de mayo, cuando se recibió el reporte de la salida de gases en el sector, el SGC inspeccionó el lugar y sus alrededores, es importante recordar que la temperatura continúa aumentando, puesto que el pasado sábado habían reportado 600 grados centígrados.
+A partir de ese momento, la entidad ha estado presente en la zona y ha realizado todos los análisis correspondientes que incluyen, además de las mediciones geoquímicas, de temperatura del suelo y el reconocimiento geológico, cinco comisiones de campo en las que han participado varios especialistas.
+Flamas en Cerro Bravo - Foto: Captura de vídeo
+Los resultados obtenidos permiten deducir que esta anomalía tendría un origen diferente al volcánico, probablemente orgánico o producto de actividades humanas, por lo que de ahora en adelante los análisis están más allá de la competencia del SGC.
+Aunque el Servicio Geológico continuará apoyando a las autoridades locales y a los demás actores involucrados en todo lo relacionado con el conocimiento volcánico, es urgente la participación de otras entidades del orden nacional, con competencias en temas ambientales y de riesgo; así como de infraestructura vial, para la generación de nuevos datos que permitan determinar y delimitar el origen de este fenómeno.
+Atención: suspendieron el paso de gas natural en el tramo Mariquita–Cali por emergencia en tubería
+Fuego en las laderas
+Aunque se esclareció que este fenómeno no está relacionado con la actividad del Nevado del Ruíz, curiosos han estado llegando hasta el lugar para presenciar este fenómeno, suceso que ha quedado en video y ha sido difundido por redes sociales.
+En los clips se ve claramente cuando un ciudadano introduce una rama en una abertura al costado de la carretera y poco a poco se empieza a encender y a aumentar la flama.
+Flamas en Cerro Bravo - Foto: Captura de vídeo
+Transeúntes y habitantes del sector se han acercado a la zona, haciendo pequeños experimentos como poner hojas o ramas para ver en cuánto tiempo se consume.
+El día de ayer, domingo 21 de mayo, el Ministerio de Minas y Energía aseguró que de acuerdo con el reporte técnico, los valores de temperatura del subsuelo en este punto -Cerro Bravo- alcanzaron los 600 °C.
+Teniendo en cuenta que esta condición anormal, ubicada a una distancia de 1,5 metros y 1,80 metros de profundidad, está afectando el adecuado funcionamiento de la tubería correspondiente al gasoducto Mariquita-Cali, la empresa TGI decidió de manera preventiva aislar el tramo expuesto al riesgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/alerta-fuego-en-las-entranas-de-cerro-bravo-en-la-via-manizales-fresno-asi-quedo-registrado-en-un-video/202312/
+</t>
+  </si>
+  <si>
+    <t>Fire alert in the bowels of Cerro Bravo on the Manizales-Fresno road This was recorded in a video</t>
+  </si>
+  <si>
+    <t>In recent days, concern in the department of Caldas has increased after the discovery of gases coming out of one of the slopes of the sector known as Cerro Bravo on the Manizales-Fresno highway. According to the Colombian Geological Service SGC, it is unlikely that these gases are really of volcanic origin. According to the results of the inspections and studies carried out up to now, this anomaly is not due to the activity of this volcano and the possibility arises that is due to the degradation of organic matter in the place, the statement indicates. Although it was clarified that this phenomenon is not related to the activity of Nevado del Ruíz, curious people have been coming to the place to witness this phenomenon, an event that has been left on video and has been broadcast on social networks. Flames in Cerro Bravo Photo Video capture. In the clips it is clearly seen when a citizen inserts a branch into an opening on the side of the road and little by little the flame begins to ignite and increase. Passersby and residents of the sector have approached the area doing small experiments such as putting leaves or branches to see how long it takes to consume. Flames in Cerro Bravo Photo Video capture. Although the SGC announces that it will continue with the investigations in accordance with its geoscientific experience, it explains that in the measurement of May 17 it was possible to verify that the methane gas that comes out of the slope of the Cerro Bravo volcano located near the municipality of Herveo Tolima has concentrations much higher than those of the volcanic areas, including those of Nevado del Ruíz itself. Gases on the Manizales Fresno highway would not originate from the Cerro Bravo volcano. The Ministry of Mines pronounces. Due to the thermal anomaly associated with the subsoil and that was detected in the sector known as Cerro Bravo in the municipality of Herveo Tolima, the Ministry of Mines and Energies responded to the situation and sent some warnings to the citizens. MinMinas assured that according to the technical report the subsoil temperature values ​​at this Cerro Bravo point reached 600 C. Taking into account that this abnormal condition located at a distance of 15 meters and 180 meters deep could affect the proper operation of the pipe corresponding to the MariquitaCali gas pipeline, the company TGI decides preventively to isolate the section exposed to risk. On the other hand, the results of the inspections and analyzes carried out so far by the Colombian Geological Service SGC, this anomaly is not due to the activity of the Cerro Bravo volcano, which is currently in an active green level but at rest. Nevado del Ruiz Volcano to improve communication in the municipalities of influence will install more than 50 antennas. However, in order to contribute to the clarification of the origin of this phenomenon, this Sunday specialists from this entity will again take measurements of the soil temperature and will evaluate the presence of sulfur dioxide S02, they will inspect the incandescence that exists in one of the exit points of gases and estimate the flux of various gases present in the soil carbon dioxide C02 hydrogen sulfide H2S and methane CH4. Cerro Bravo is a stratovolcano composed of several layers of hardened lava and pyroclastic Photo Screenshot video Tik Tok jeryoperador560. From the Ministry of Energy, together with the marketing companies, users, in particular the inhabitants of the departments of Caldas, Tolima, Risaralda, Quindío, Valle del Cauca and Cauca, are invited to make efficient use of natural gas while the service is restored, they expressed. It should be noted that since the case report, the CNO National Natural Gas Operation Council, led by the Ministry of Energy and of which national government entities and the marketing and transportation companies are a part, have been advancing urgent technical and operational actions to have alternatives for connections and gas transport and mitigate the affectation in the provision of the service to users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/gases-en-la-via-manizales-fresno-no-serian-originados-por-el-volcan-cerro-bravo/202319/
+</t>
+  </si>
+  <si>
+    <t>Gases on the Manizales Fresno highway would not be caused by the Cerro Bravo volcano</t>
+  </si>
+  <si>
+    <t>From the Colombian Geological Service SGC, information has been released according to which it is unlikely that the gases that come out of one of the slopes of the sector known as Cerro Bravo on the Manizales Fresno road are really of volcanic origin. According to the results of the inspections and studies carried out so far, this anomaly is not due to the activity of this volcano and the possibility is open that it is due to the degradation of organic matter in the place, the statement indicates. They have not determined the cause of the gas outlet from the Cerro Bravo sector. Photo Courtesy of the Colombian Geological Service. It is also made clear that this phenomenon is not related to the activity of the Nevado del Ruíz volcano, which is located approximately 22 kilometers from Cerro Bravo and remains at an orange level. Although the SGC announces that it will continue with the investigations in accordance with its geoscientific experience, it explains that in the measurement of May 17 it was possible to verify that the methane gas that comes out of the slope of the Cerro Bravo volcano located near the municipality of Herveo Tolima has concentrations much higher than those of the volcanic areas, including those of Nevado del Ruíz itself. It is also recalled that the analysis and comprehensive evaluation of the monitoring parameters of the Cerro Bravo volcano show a stable behavior, which means that it is an active complex but at rest and with very little activity. Attention Risaralda is no longer part of the evacuation zone of the Nevado del Ruiz volcano. This volcano has been monitored since September 1995, presenting a level of green activity over time, as in recent days. Based on this, from the SGC we can infer that this anomaly is not related to the activity of the Cerro Bravo volcano, the entity specifies. Among the points that the SGC indicates to rule out that the gases come from volcanic activity is the superficiality of the phenomenon due to the fact that it occurs in a specific area of ​​Cerro Bravo and that there is no additional change in its surroundings. The mountain is known as Cerro Bravo and is located before Alto de Letras Photo Screenshot video Tik Tok jeryoperador560. The concentrations of methane gas found in addition to the stability of the Cerro Bravo volcano during the 28 years in which it is being monitored are also taken into account. Precisely as it is a superficial phenomenon, the SGC indicates that the anomaly does not generate any impact on the Cerro Bravo volcano system nor on Nevado del Ruíz since each volcano has its own structure and is governed by different dynamics, so the activity of each is independent. It is also important to bear in mind that Transportadora de Gas Internacional TGI analyzed the area carefully and ruled out that it was a leak in the gas pipeline that passes through the area. Nevado del Ruiz Volcano to improve communication in the municipalities of influence will install more than 50 antennas. Although support will be provided to local authorities and entities involved in the investigation, the SGC clarifies that it would not have jurisdiction in the event that the phenomenon is related to the degradation of organic matter. Cerro Bravo is a volcano that is located in the Central Cordillera and is the highest point in the municipality of Herveo in the department of Tolima, reaching 4000 meters above sea level. As the closest populated areas of this volcano formed approximately 50,000 years ago, which is 22 kilometers from Nevado del Ruíz, is the city of Manizales at a distance of just 24 kilometers. The SGC and the Caldas Risk Management Unit are conducting the investigation to determine the cause of the phenomenon Photo Screenshot video Tik Tok jeryoperador560. It is made up of several layers of hardened lava and pyroclasts, but it does not have snow on the summit due to its height. It has two calderas, 15 and 10 kilometers in diameter, and its last eruption is estimated to have occurred in the year 1720.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/pereira/articulo/atentos-risaralda-ya-no-hace-parte-de-la-zona-de-evacuacion-del-volcan-nevado-del-ruiz/202313/
+</t>
+  </si>
+  <si>
+    <t>Attention Risaralda is no longer part of the evacuation zone of the Nevado del Ruiz volcano</t>
+  </si>
+  <si>
+    <t>As a balance of the Unified Command Post N17 that has been carried out in Colombia since March 30, when the orange alert was declared due to activity in the Nevado del Ruiz volcano, it was determined to modify the evacuation zone. The information was revealed by Olmedo López, director of the National Unit for Disaster Risk Management, UNGRD, the entity that indicated that the decision was made with the Colombian Geological Service, which is in charge of monitoring the volcanic building. Activity of the Nevado del Ruiz volcano Photo Week Photo Magda Jimena Ríos Bedoya. According to the official, evacuation work and prevention actions are being maintained to respond to the level of orange activity that remains from the volcano. The area was specified in a polygon where there may be a greater risk and it is required to maintain the preventive evacuation of the population. Due to its irregular shape, it is possible to exclude some areas of immediate evacuation, as is the case of the municipality of Santa Rosa de Cabal, department of Risaralda. the official indicated. He clarified that the analysis of the situation of the volcano led the authorities gathered at the Unified Command Post to determine that in other zones the area to be evacuated will be expanded, as is the case in the vicinity of the channels of the Gualí Azufrado Lagunilla and Recio rivers in the Tolima and Rio Claro in Caldas. Nevado del Ruiz Volcano to improve communication in the municipalities of influence will install more than 50 antennas. It is important to highlight that the preparation work for the response has been carried out within a radius of 15 kilometers where the joint actions of the entities of the national Disaster Risk Management system were activated, such as the adaptation of roads, the definition of evacuation routes, among other actions. asserted. AEstaHora Director of the UNGRD olmedolopezm presides over the Unified Command Post PMU No. 17 to monitor the actions being developed by the entities of the National Disaster Risk Management System SNGRD for the activity of the NevadoDelRuiz Volcano pictwittercommk8gCMbOAL. UNGRD UNGRD May 19, 2023. He stressed that although in the adopted areas there is no municipal seat or populated centers, there are some rural sectors of Caldas and Tolima where immediate evacuation is required. This occurs particularly in areas near rivers where expanded coverage. He asked the municipal risk management councils to verify the exact locations in each jurisdiction and announced that they will have the support of the National Disaster Risk Management Unit for this. The beneficiaries are inhabitants of the rural area of ​​Villamaría Caldas Photo Government of Caldas Photo Courtesy Government of Caldas. In those places already defined between Caldas Risaralda and a sector of Tolima where ash can fall and form accumulations of more than 10 centimeters, an immediate evacuation is not necessary, but it is necessary to adopt particular measures such as preparations for the responses that are defined by each municipal authority highlighted the director Olmedo López. Regarding the animals and people who live in these areas, he clarified that they could present respiratory difficulties and that contamination and obstruction of water sources, partial or total loss of crops and livestock, covering and burying the surface is possible. Due to the activity of the Nevado del Ruiz volcano, they deliver food for the animals located in the area of ​​influence. The director of the UNGRD highlighted that for the high threat areas that are outside the evacuation areas, as is the case of some sectors with mudflows, it is essential to maintain preparations for the evacuation, consolidation of simulation exercises and drills that involve to the communities as well as the verification and adjustment of the early warning system. The zone where the radius of action increases includes in Tolima 16 villages of the municipality of Murillo 3 of Líbano 1 of Herveo 14 of Villahermosa and 6 of Casabianca Additionally, Caldas includes a municipality. This means that we must concentrate our efforts to review, evacuate and accompany the municipalities. Sufficient resources have been allocated to the territory and if they are necessary, more will be involved, he said. Regarding the activity of the Nevado del Ruiz volcano, he highlighted that in recent weeks the level has been maintained, so it is necessary to continue implementing prevention measures and review interventions in the territory. In rural areas, work is underway to update the census Photo Courtesy of the Mayor's Office of Manizales Photo Courtesy of the Mayor's Office of Manizales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-para-mejorar-la-comunicacion-en-los-municipios-de-influencia-instalaran-mas-de-50-antenas/202305/
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano to improve communication in the municipalities of influence will install more than 50 antennas</t>
+  </si>
+  <si>
+    <t>In order to advance in the preparation for a possible eruption of the Nevado del Ruiz volcano, the processes of updating the censuses of families located in the area of ​​influence continue, education sessions and adaptation of evacuation routes, among other interventions. Added to this is the announcement made by ICT Minister Mauricio Lizcano Arango related to the installation of 50 new antennas to improve communication for the inhabitants of the area. The minister announced the installation of antennas to improve communications in the area of ​​influence of the volcano Photo Courtesy Gobernación de Caldas. These connection points will be located in areas of Caldas Tolima and Risaralda so that we can connect through antennas the provision of cellular service from the four operators throughout this region, the minister announced. The equipment will be located by the different operating companies The announcements include the location by Tigo of new antennas in the 14 municipalities of the five departments close to Nevado del Ruiz In this specific case, the goal is to achieve a total coverage of 280 points in the volcano boundaries. What is the current status of the active volcanoes in Colombia This is the report of the Colombian Geological Service. According to Lizcano Arango, the objective is to improve the coverage problems in the upper part of Villamaría, the connection problems at kilometer 41, which belongs to Manizales, and in the municipality of Chinchiná and in the upper areas. In Risaralda there are four towns that are also with these kinds of problems. Faced with this issue, it was learned that the operator Claro carries out different actions to reinforce and expand coverage in 24 rural sectors of Caldas, 17 from Risaralda and 13 from Tolima. of some sectors of Manizales Chinchiná and Palestina can keep in touch with the authorities and their families at any time, as well as being a tool to give early warnings. The volcano is still at an orange level of activity. Photo Courtesy of the Caldas Government. To this is added that Wom announced that it is working to increase its coverage by 26 in 41 municipalities with some degree of affectation by the volcano. Finally, TelefónicaMovistar confirmed that it has repowered more than 50 base stations in the area of ​​influence of this volcanic building that It is in orange activity level. The operators are already committed to obligations to do so that God wants nothing happens, but if something happens that we have the capacity to respond to. If nothing happens with the volcano, these communications serve all the communities, the ICT minister asserted. He stressed that the installation of these 50 antennas obeys the strategy that MinTIC created together with mobile satellite and radio telecommunications companies in order to guarantee the quality and coverage of communications in the departments of Caldas Risaralda and Tolima. In addition, we will deliver antennas to relief agencies so that they can communicate in the event of a possible eruption, pointed out the minister who announced the delivery of computers so that children out of school due to the orange alert can continue with their classes. Due to the activity of the Nevado del Ruiz volcano, they deliver food for the animals located in the area of ​​influence. Faced with these announcements, Viviana Morales, ICT secretary of Risaralda, indicated that we are ready to carry out technical support with our entire work group and engineers and thus provide support to the Risk Management units and do the georeferencing and location part in all that they require for the installation of equipment and antennas. From the ICT Ministry they emphasize that these announcements are added to the licenses for public interest broadcasters for emergency care delivered in the last week to the municipalities of Herveo Casabianca Murillo Villahermosa and Santa Isabel in Tolima. They announce the installation of 50 communication antennas Photo Courtesy of the ICT Ministry. We want to thank the minister because a few days ago we were talking about the need to be able to connect the people located in the area that may be the first affected by the emergency, said the governor of Caldas Luis Carlos Velásquez Cardona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/cual-es-la-actualidad-de-los-volcanes-activos-de-colombia-este-es-el-reporte-del-servicio-geologico-colombiano/202356/
+</t>
+  </si>
+  <si>
+    <t>What is the current situation of the active volcanoes in Colombia This is the report of the Colombian Geological Service</t>
+  </si>
+  <si>
+    <t>For more than 45 days in Colombia there have been daily reports of what is happening with the Nevado del Ruiz volcano because on March 30 its level of activity turned orange. But keep in mind that this is not the only active volcano in the country and therefore there are others that are also monitored to determine if they present variations in their behavior. This was the behavior of some of the Colombian volcanoes in the week between May 9 and 15. Cerro Machin volcano. This volcanic edifice continued to record seismic activity related to rock fracturing. According to experts, this seismic activity increased in the number of registered earthquakes and in the seismic energy released with respect to the previous week. The yellow level of activity or type III is maintained. Photo Courtesy of the Colombian Geological Service. The SGC confirms that Cerro Machín is at a yellow level The occurrence of a slight increase in this type of seismicity on May 9 stands out The earthquakes were located mainly between the west and southwest of the main dome and to a lesser extent to the north and south from the volcano at depths between approximately 2 and 4 km. They indicate that the other parameters measured and used for the diagnosis of volcanic activity did not show significant changes during the evaluated period. Galeras volcano. This volcano is at a yellow level of activity, which indicates changes in behavior. In the place, the seismic occurrence and energy continued presenting low levels similar to those reported for the previous weeks. They affirm that the predominance of events associated with rock fracture within the volcanic system is maintained in the place. Fracture seismicity was located scattered around the volcanic edifice at distances of less than 10 km from the active cone with maximum depths of 10 km with respect to the top 4200 masl. Due to the activity of the Nevado del Ruiz volcano, they deliver food for the animals located in the area of ​​influence. The Galeras volcano has registered small white gas emissions with a low height, which indicates a predominance of water vapor from some of the existing fumarolic fields in the active cone. Cumbal Volcanic Complex. The latest SGC report on this volcano confirms that the seismic activity showed a slight increase in the occurrence and seismic energy released by the events compared to previous weeks, although it remains at low levels. According to the entity's surveillance, in this period of time, earthquakes associated with rock fractures in the volcanic system with a maximum magnitude of 17 predominated. This is one of the active volcanoes in the country monitored by the SGC Photo Courtesy Colombian Geological Service . As characteristics of the activity, they confirm that when the climatic conditions were favorable, it was possible to register columns of white gas of small height and variable dispersion according to the speed and direction of the winds in the volcanic zone. These emissions were observed mainly in the El Verde Humeros Fogones and La Rea edifice Cumbal fumarolic fields northeast of the CVC and also from the La Banda Rastrojos and Boca Vieja edifice Mundo Nuevo fumarolic fields southwest of the CVC. In Caldas they seek to improve the early warning system in the area of ​​influence of the Nevado del Ruiz volcano. Cerro Bravo volcano. In the last week there has also been information related to the Cerro Bravo volcano, which is located between Alto de Letras Manizales and Herveo Tolima, where there has been a gas outlet and a kind of white smoke whose origin has not been determined. On this matter, the SGC explained that this is one of the 25 active volcanoes monitored by the Colombian Geological Service. They have not determined the cause of the gas outlet from the Cerro Bravo sector. Photo Courtesy of the Colombian Geological Service. It is located on the Central Cordillera in the jurisdiction of the municipality of Herveo Tolima, 24 km from Manizales and 22 km from the Nevado del Ruiz volcano. It is estimated that the Cerro Bravo volcano was formed approximately 50,000 years ago, reaches 4,000 meters above sea level and is currently at a Green level of activity, which indicates that it is active but at rest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-actividad-del-volcan-nevado-del-ruiz-entregan-alimento-para-los-animales-ubicados-en-la-zona-de-influencia/202353/
+</t>
+  </si>
+  <si>
+    <t>Due to the activity of the Nevado del Ruiz volcano, they deliver food for the animals located in the area of ​​influence</t>
+  </si>
+  <si>
+    <t>The 45 days that the declaration of the level of orange activity of the Nevado del Ruiz volcano takes has the authorities of the municipalities located in the area of ​​influence to maintain the preparation before a possible eruption which can occur in the term of days or weeks. The process has included the evacuation of families, the updating of the censuses and the delivery of emergency kits. Added to this is the delivery of more than 45 bales of hay by the Animal Welfare Brigade of the Carabineros Police. The uniformed officers verify the health conditions of the animals and provide recommendations. Photo Courtesy of the Caldas Police. One of the delivery processes was carried out on the banks of the Chinchiná River where families have more than 105 animals including cows, horses, dogs, cats and chickens, which may be at risk from phenomena such as ash fall. The uniformed officers of the group of policemen and canine guides from the department of Caldas delivered the food for horses and cattle. In addition to this, they carried out a process of verification of the health parameters of the animals, such as health, nutrition, safe spaces and behavior. Video of the mysterious gases that emanate from the mountain on a road to Manizales near Nevado del Ruiz This is what is known. Among the recommendations that people living in the area of ​​influence of the Nevado del Ruiz volcano should take into account for the care of their animals are: If they come into direct contact with volcanic ash, it is advisable to clean their eyes, mouth and nose with plenty of water. It is also important to constantly change the water they drink and the food they eat. In the event that the animals suffer burns from the ash from the volcano, you can moisten cloths and apply them to the affected areas. In case the injuries are serious, it is advisable to take the animals to the vet. Taking pets for a walk should be avoided when there is a presence of volcanic ash in the environment. Keep the animals in a safe place, preferably inside the house. What worries the most in the area is the attention given to the bovines. Photo Courtesy of the Mayor's Office of Manizales. Faced with this issue, the Manizales Mayor's Office reminded the community that to protect pets it is necessary to frequently wash their water and food containers, which should not be left outdoors. Added to this is the need to wash their feet only with water without using chemical products or soap, dry brush their fur after each outing, reduce or prevent them from sniffing and licking the floor, and gently clean their eyes, nose, and ears with wet wipes. Given the ash fall from the Nevado del Ruiz volcano, it must be taken into account that it can affect pets with. Irritation of conjunctiva eyes and nasal passages. cough or sneeze Ocular and/or nasal secretions. Irritation of the skin and plantar pads. Digestive disorders due to accidental consumption of ash in food or water. In Caldas they seek to improve the early warning system in the area of ​​influence of the Nevado del Ruiz volcano. They recover animals in municipalities of Caldas. In the municipality of Palestina, thanks to the collaboration of the citizens, a blue and yellow macaw with the scientific name Ara ararauna and an infant three-toed sloth with the scientific name Choloepus hoffmanni were recovered by the authorities. Additionally, in the municipality of Neira, the authorities managed to seize three species of birds, including a blue-fronted parrot, a yellow-fronted parrot, and a mockingbird. The animals were delivered voluntarily by the people who had them Photo Courtesy Caldas Police. They indicated that the people who had these animals in their possession voluntarily allowed the uniformed officers to enter their places of residence in order to carry out the seizure procedure. The mammal and birds were left at the disposal of the Center for Attention Valuation and Rehabilitation of Wildlife of the Regional Autonomous Corporation of Caldas for veterinary medical evaluation and subsequent restitution of their wildlife.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-reportan-que-aumento-la-sismicidad-es-peligroso/202347/
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano reported that increased seismicity is dangerous</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service continues with the constant monitoring of the activity of the Nevado del Ruiz volcano, which reports new eventualities in relation to what was registered in previous days. One of the novelties is presented with the increase in seismic activity associated with rock fracturing inside the volcanic edifice on May 14 and 15. According to the entity, there was a significant increase in the number of earthquakes and seismic energy released in comparison to May 13 and the previous week. The Colombian Geological Service analyzes the parameters of the volcano Photo Courtesy Colombian Geological Service. Additionally, according to the report delivered by the experts based on the records of the web cameras and the other equipment installed in the area of ​​the volcano, this seismicity was located mainly to the southwest of the Arenas crater, at a distance between 4 and 5 km from it with depths that oscillated between 2 and 4 km. The earthquakes were felt in the Lagunilla sector and the municipality of Murillo, areas that belong to the department of Tolima. The maximum magnitude was 28 Local Magnitude corresponding to two earthquakes registered on May 14 at 1,259 p.m. and 100 p.m., says the Geological Service report. . Video of the mysterious gases that emanate from the mountain on a road to Manizales near Nevado del Ruiz This is what is known. On the other hand, the seismic activity related to the movement of fluids inside the volcanic conduits presented an increase, especially in the seismic energy released. The entity highlights that some of the seismic signals were associated with pulsatile ash emissions confirmed through the web cameras used for volcanic monitoring. The ash emission recorded on the morning of this Monday, May 15 at 520 am, which generated the ash fall in the municipalities of Manizales and Villamaría that belong to the department of Caldas. From the SGC they reiterate that the activity of the Nevado del Ruiz volcano continues to be very unstable and that it is possible that the levels of seismic activity as well as those of degassing or ash output decrease or are oscillatory in the sense of increasing some days and decreasing others. Photo of the Nevado del Ruiz Volcano and its seismic activity Photo Colombian Geological Service. The experts confirm that in Manizales there were reports of the smell of sulfur and point out that it is possible that this is due to the dispersion of a high concentration of sulfur dioxide SO2 from the volcano, which together with some components of the ash could react with humidity. in the environment and smell and irritating sensation similar to sulfur compounds. For the peace of mind of the community, the SGC clarifies that the occurrence of this type of phenomenon does not indicate any relevant change in the activity of the volcano, it simply occurs occasionally when this type of factor combines SO2 concentration and high humidity and is contemplated within the parameters of a volcano in orange activity level. Manizales and the strange smell of sulfur that comes from the Nevado del Ruiz volcano In the city there has been a strong fall of ash. Félix Ricardo Giraldo Delgado, head of the Caldas Risk Management Unit, explained in response to this situation that with the heavy rains that have fallen in the city, there was a dispersion throughout the urban area of ​​these two towns and this was reflected in vehicles and in streets that obviously noticed this phenomenon of volcanic ash fall. Added to this is a strong smell of sulfur from early morning in almost the entire city of Manizales and this is due to the recurring emission of gases, vapors and ashes from inside the Nevado del Ruiz volcano. They seek to strengthen the sirens that are already in place in sectors such as Viejo Río Claro and El Destierro de Villamaría Photo Courtesy of the Caldas Government. They ask the community to remain calm, follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities and be attentive to the information provided by the Colombian Geological Service on the evolution of the state of the volcano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/manizales-y-el-extrano-olor-a-azufre-que-proviene-del-volcan-nevado-del-ruiz-en-la-ciudad-se-ha-tenido-una-fuerte-caida-de-ceniza/202347/
+</t>
+  </si>
+  <si>
+    <t>Manizales and the strange smell of sulfur that comes from the Nevado del Ruiz volcano In the city there has been a strong fall of ash</t>
+  </si>
+  <si>
+    <t>The inhabitants of Manizales and those who are in it for some reason have had to face on this Monday, May 15, different natural phenomena that remind them that the Nevado del Ruiz volcano is active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-reportan-normalidad-en-manizales-luego-de-sismo-de-magnitud-50/202305/
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano reports normality in Manizales after magnitude 50 earthquake</t>
+  </si>
+  <si>
+    <t>In the early hours of this Sunday, May 14, an earthquake was registered in Colombia. It was felt in different parts of the country. In principle, the Colombian Geological Service SGC said that it was of magnitude 43 and later specified that it was 50 with an epicenter in Acacias Meta and a depth less than 30 kilometers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-podria-haber-caida-de-ceniza-en-tres-municipios-del-tolima/202358/
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano could have ash fall in three municipalities of Tolima</t>
+  </si>
+  <si>
+    <t>This May 13, the Colombian Geological Service SGC published a new extraordinary bulletin in which it gives details about the situation of the Nevado del Ruiz volcano. In the document, the entity warns that seismic activity continued to occur due to the constant movement of fluids within the volcanic conduits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-podria-hacer-erupcion-en-dias-o-semanas/202342/
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano could erupt in days or weeks</t>
+  </si>
+  <si>
+    <t>On March 30, the Colombian Geological Service SGC was forced to set off alarms due to the unstable behavior of the Nevado del Ruiz volcano, given that it could lead to the largest eruption in the last decade. Since then, conditions have not changed and the risk remains of the emergency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/en-caldas-buscan-mejorar-el-sistema-de-alertas-tempranas-en-la-zona-de-influencia-del-volcan-nevado-del-ruiz/202356/
+</t>
+  </si>
+  <si>
+    <t>In Caldas they seek to improve the early warning system in the area of ​​influence of the Nevado del Ruiz volcano</t>
+  </si>
+  <si>
+    <t>The departments and municipalities that are in the area of ​​influence of the Nevado del Ruiz volcano are advancing in the preparation process for a possible emergency, taking into account the level of orange activity in which it is located.</t>
+  </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/nevado-del-ruiz-que-son-las-cenizas-volcanicas-y-que-indican-del-estado-del-volcan/202328/
 </t>
   </si>
   <si>
-    <t>Nevado del Ruiz: ¿qué son las cenizas volcánicas y qué indican del estado del volcán?</t>
-  </si>
-  <si>
-    <t>La actividad en la que se mantiene el volcán Nevado del Ruiz arroja unas características que muestran su inestabilidad con indicadores como predominio de la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos, aumento en la energía sísmica liberada, anomalías térmicas importantes en el fondo del cráter y variaciones de la desgasificación de dióxido de azufre y salida de vapor de agua desde el cráter a la atmósfera.
-Todos estos factores llevan a las autoridades de los municipios y departamentos ubicados en la zona de influencia, a los organismos de socorro, a la Unidad Nacional de Gestión del Riesgo de Desastres y al Servicio Geológico Colombiano a mantener la vigilancia sobre el edificio volcánico y las medidas de prevención.
-Las autoridades de salud recomiendan utilizar tapabocas para evitar afectaciones respirtatorias. - Foto: Magda Jimena Ríos Bedoya
-El nivel de actividad del volcán se mantiene en II o naranja, lo que indica erupción probable en días o semanas y uno de los factores que muestran su actividad y que más llama la atención, e incluso genera muchas dudas entre la comunidad, es el relacionado con la emisión de ceniza.
-Desde el SGC indicaron por ejemplo que el día 8 de mayo se presentaron emisiones pulsátiles de este material, las cuales fueron confirmadas a través de las cámaras web ubicadas en la zona para el monitoreo del volcán.
-Municipios en riesgo por el volcán Nevado del Ruiz ya cuentan con emisoras de emergencia
-La dispersión de la ceniza depende siempre de la dirección de los vientos y su altura máxima medida desde la cima del volcán tiene variaciones.
-Para avanzar en el proceso de preparación y educación frente a la actividad del volcán Nevado del Ruiz, desde el SGC indicaron que esta ceniza que cae sobre poblaciones de los departamentos de Tolima, Caldas, Risaralda y Quindío son partículas volcánicas con un tamaño menor a 2 mm.
-De acuerdo con la entidad, estas partículas pueden ser de rocas, vidrio o cristales de minerales, por lo que su composición puede variar dependiendo del tipo de volcán y erupción. Según los expertos, esta emisión es la consecuencia de procesos al interior del volcán.
-Se presenta un aumento en las magnitudes de los sismos registrados. - Foto: Magda Jimena Ríos Bedoya
-“En un proceso eruptivo, la presión del magma y sus gases pueden fragmentar la roca al interior del volcán en pedazos. Estos fragmentos salen a gran velocidad a través del cráter. Esto es más común en volcanes tipo explosivo. No todos los volcanes activos la emiten, sí puede ocurrir en volcanes con nivel de actividad amarillo, naranja y rojo”, indican desde el SGC.
-La preocupación de la comunidad frente a la caída de ceniza se debe a los daños que esta pueda generar en los cultivos y las afectaciones en la salud de ella y de los animales. En relación con estos aspectos, el Servicio Geológico Colombiano destacó que la acumulación de la caída de ceniza en la tierra puede enriquecer los minerales disponibles en el suelo.
-Atención | Doble temblor en Colombia sacudió el país este martes 9 de mayo
-“En general, las partículas volcánicas se componen de minerales como sodio, magnesio y potasio, elementos esenciales para las plantas”, aseveran.
-Sin embargo, destacan que la ceniza en grandes cantidades sobre la atmósfera puede afectar la calidad del agua y del aire, y generar efectos nocivos en el sistema respiratorio. Esto depende de la cercanía al volcán y la dirección de la dispersión.
-Ante la caída de ceniza desde el volcán Nevado del Ruiz, la Alcaldía de Manizales recomienda aplicar las siguientes medidas de protección:
-Evite exposiciones innecesarias. Permanezca en casa con las ventanas y puertas cerradas.
-Si tiene que salir, utilice tapabocas o un pañuelo humedecido con agua. Cubra nariz y boca.
-Evite el uso de lentes de contacto para no irritar los ojos.
-Cubra los alimentos y depósitos de agua.
-Limpie de ceniza los canales y los techos. Para adelantar este proceso, utilice una escoba.
-Volcán Nevado del Ruiz con columna de gases y/o ceniza. - Foto: Cortesía: Servicio Geológico Colombiano.</t>
+    <t>Nevado del Ruiz, what are volcanic ashes and what do they indicate about the state of the volcano?</t>
+  </si>
+  <si>
+    <t>The activity in which the Nevado del Ruiz volcano is maintained shows some characteristics that show its instability with indicators such as the predominance of seismic activity related to the movement of fluids inside the volcanic conduits, an increase in the seismic energy released, important thermal anomalies in the crater floor and variations in sulfur dioxide degassing and water vapor outflow from the crater into the atmosphere</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/cucuta/articulo/municipios-en-riesgo-por-el-volcan-nevado-del-ruiz-ya-cuentan-con-emisoras-de-emergencia/202318/
 </t>
   </si>
   <si>
-    <t>Municipalities at risk by the Nevado del Ruiz volcano already have emergency stations</t>
-  </si>
-  <si>
-    <t>The inhabitants of the surrounding areas to the Nevado del Ruiz volcano already have four new public interest stations for disaster attention and prevention that were authorized by the Ministry of Information Technology and Communications of Colombia ICT.According to the entity, the objective of these tools is to provide the community in general communication channels that facilitate prevention and recovery prevention actions before a possible eruption of the Nevado del Ruiz volcano.Why the orange alert is maintained in the Nevado del Ruiz.Thus, the municipalities to which licenses were granted to provide the broadcasting service were Casabianca Murillo Villahermosa and Santa Isabel in the department of Tolima the first three declared at high risk by the National Risk Management Unit.Nevado del Ruiz volcano from the Colombian Geological Service in Manizales Photo Colombian Geological Service.With the entry into operation of these stations we are giving the people of the region the possibility of receiving information on time about the state of emergency of the volcano the recommendations of the care and instructions organisms that will be key to avoiding a disaster and safeguarding liveswhich is our priority, said Minister Tic Mauricio Lizcano.A red alert can be unleashed in the Nevado del Ruiz volcano in the next few days.The licenses of the stations that will work in modulated FM or in modulated amplitude AM were issued in record time taking into account the importance of the service they will provide and the declaration of orange alert by the emergency.This was developed in a joint work with the National spectrum agency where the procedure could be advanced in less than a week and thus make effective communication possible because the SGC Colombian geological service warns that there is possibly an eruption of the volcano indays or weeks.Nevado del Ruiz volcano is still very unstable photo courtesy Colombian Geological Service.The concession licenses of the four stations were requested by the municipalities of the municipalities and will be responsible for their management administration and programming that must revolve around issues related to the emergency by the Nevado del Ruiz volcano.Having this license is excellent news an issuer is the way people have to communicate through the radio we can inform what happens to the volcano permanently and immediately explained the mayor of Murillo Antonio José García.It is worth mentioning that the stations may work as long as the disaster or calamity situation in the municipalities where they can be extended as long as the need to have said communication channel for the recovery stage of aeventual emergency.REFERENCE IMAGE PHOTO GETTY IMAGESISTOCKPHOTO.In addition to these four stations, it is expected to deliver in the next few days the broadcasting license to the inhabitants of Herveo also in Tolima, however, the ICT Ministry continues waiting for the required documentation by the municipality.Thus, the expert asked not to stop paying attention to the information issued by the authorities.It is important to be very aware although it does not mean that at this time it will have to make an eruption but that these conditions sometimes make the authorities and the general community get used to certain levels of activity that are not normal you have to be veryAttentive to the official information of the Colombian Geological Service and the National Unit of this risk and in the same way with the local and departmental risk management authorities, John Makario Londoño Technical Director of Geoamenazas of the SGC said</t>
+    <t>Municipalities at risk from the Nevado del Ruiz volcano already have emergency stations</t>
+  </si>
+  <si>
+    <t>The inhabitants of the areas surrounding the Nevado del Ruiz volcano already have four new stations of Public Interest of Attention and Disaster Prevention that were authorized by the Ministry of Information Technologies and Communications of Colombia TIC</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-que-se-mantiene-la-alerta-naranja-en-el-nevado-del-ruiz/202307/
 </t>
   </si>
   <si>
-    <t>Why the orange alert is maintained in the Nevado del Ruiz</t>
-  </si>
-  <si>
-    <t>The SGC Colombian Geological Service continues to monitor the Nevado del Ruiz volcano because its level of activity continues in orange since this situation was reported in early April.For this reason, all the indicators analyzing the experts ratify that the activity of the volcanic building remains very unstable, however, this would have a logical explanation as John Makario Londoño Londoño was announced Technical Director of Geoamenazas of the SGC.A red alert can be unleashed in the Nevado del Ruiz volcano in the next few days.According to the entity, the activity of the volcano today May 8 is similar to that of Sunday, May 7 because some thermal anomalies that have reached greater values than those that have been detected in previous days have been detected.The activity of the volcano is still very unstable photo courtesy Mayor's Office of Manizales.Although there is a seismicity of fracture, this is in low quantity and low energy are usually located in the crater in its surroundings and what most predominates is that it remains the seismic activity associated with this fluid activity inside the crater especially the emission output of the emission ofGases and ash for the fumaroles that the volcano has and predominantly predominates thermal anomalies some of them with important values said Londoño.The Nevado del Ruiz volcano is heating more there are risks.This means that it is possible that the levels of seismic activity as well as the levels of ash of ash exit decrease or are oscillatory in the sense of increasing a few days and decreases others.The volcano continues at unstable levels and therefore this orange activity that is the probability of erupting in days or weeks therefore it is important to follow the recommendations The authorities detailed the technical director of Geoamenazas of the SGC.John Makario Londoño Technical Director of Geoamenazas of the Colombian Geological Service on the activity of the Nevado del Ruiz Video Video Capture Colombian Geological Service.It is worth mentioning that this same expert stressed in recent days that the activity of the volcano cannot become part of the landscape and that citizens should not get used to current conditions because they must keep in mind that they are still anomalous.He also said that the level of activity will remain as it is and explained why it will not vary at the moment also pointed out that calm can be a sign of an eruption even if it will not necessarily occur.This orange level will still persist because the volcano has not returned to the levels that had a second months ago we cannot change to red either because the eruption one does not know if it will happen or not really and third it is important to remember that sometimes the volcano hasShowed that when he calms long after having a seismic activity and another much higher type is when he has made eruptions he emphasized.VOLCÁN NEVADO DEL RUIZ IN MAY PHOTO COURTESY COLOMBIAN GEOLOGICAL SERVICE.In order for the level of activity to go to yellow, a prudential time has to spend where trends and patterns can be observed that allow inferring the possible decrease in activity which can be extended to several weeks.Thus, the expert asked not to stop paying attention to the information issued by the authorities, it is importantGeneral Community get used to certain levels of activity that I return and I repeat are not normal stressed the technical director of Geoamenazas of the SGC</t>
+    <t>Why the orange alert is maintained in Nevado del Ruiz</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service SGC continues to monitor the Nevado del Ruiz volcano because its level of activity continues in orange since this situation was reported in early April</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-recomiendan-continuar-con-las-medidas-de-prevencion-ante-el-aumento-de-sismos/202311/
 </t>
   </si>
   <si>
-    <t>Nevado del Ruiz volcano recommend continuing with prevention measures to the increase in earthquakes</t>
-  </si>
-  <si>
-    <t>The SGC Colombian Geological Service continues to monitor the Nevado del Ruiz volcano due to the risk of eruption because its level of continuous activity in orangerash in days or weeks.Thus, the authorities pointed out in their most recent report that during May 8 and so far this Tuesday, May 9, the predominance of seismic activity related to the movement of fluids inside the volcanic ducts which presentsA slight increase in the number of earthquakes and the seismic energy released with respect to May 7.The activity of the volcano is still very unstable photo courtesy Mayor's Office of Manizales.Some seismic signals associated with this type of seismicity have been related to pulsatile ash emissions confirmed through the web cameras used for volcanic monitoring indicated the SGC.The Nevado del Ruiz volcano is heating more there are risks.It was detailed that during May 7 the seismic activity associated with rock fracturing within the volcanic building showed similar behavior in the number of registered earthquakes and in the seismic energy released compared to the previous day.The earthquakes were located in the Arenas crater and in a dispersed way around it at a maximum distance of 5 km and at depths between 1 and 6 km the statement indicates.With respect to the superficial activity the maximum height of the gase column I observed ash was 1000 m measured from the top of the volcano and was related to an ash emission recorded on May 8 at 727 p m.Snowy volcano of the Ruiz Reference image Photo courtesy Colombian Geological Service.The preferential dispersion direction of the gas column was to the southern and northwest west of the volcano from the satellite monitoring platforms several important thermal anomalies were observed at the bottom of the crater stressed the entity.On the other hand, the variations in the tear of sulfur dioxide and the water vapor exit from the crater to the atmosphere are the indicators, they ratify that the activity of the Nevado of the Ruiz remains very unstable and that it is necessary to continue with the measuresPrevention pointed to the SGC.A red alert can be unleashed in the Nevado del Ruiz volcano in the next few days.Thus, things may be that the levels of seismic activity as well as the levels of ash of ash exit decrease or oscillatory in the sense of increasing a few days and decreasing others, however, this does not imply that the volcano has returned to its normal levels ofActivity, so it is recommended not to get used to these oscillatory changes in activity and think that it is a normal volcano activity.This is the level of opacity in which the imposing snowy volcano of the Ruiz Photo Colombian Geological Service has remained.To change level and return at the yellow level, a prudential time is required where trends and patterns can be observed that allow the possible decrease in the activity that the current activity that the volcano still does not show for this reason from the SGC we warn that the level we noticed that the level we notice that the levelof activity of the Nevado del Ruiz volcano will remain at the orange level for several weeks during this time in the event that an acceleration of the processes that suggest an imminent eruption or that the eruption itself occurs in the level of activity will be changed to red ends.the notice.Given this, the Colombian Geological Service recommends the community in general to keep calm to follow all the instructions of the National Unit for Disaster Risk Management UNRGRD and ask local authorities to be attentive to the information provided on the evolution of the state of the volcano</t>
+    <t>Nevado del Ruiz volcano recommends continuing with prevention measures in the face of increased earthquakes</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service SGC continues to monitor the Nevado del Ruiz volcano due to the risk of eruption due to the fact that its level of activity continues in orange. All the indicators that the experts analyze confirm that the activity of the volcanic edifice continues to be very unstable but with the probability that it will rash over days or weeks</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-por-que-no-hay-que-relajarse-y-que-tiene-que-pasar-para-que-baje-el-nivel-de-actividad/202354/
 </t>
   </si>
   <si>
-    <t>Nevado del Ruiz volcano why you don't have to relax and what has to happen to lower the level of activity</t>
-  </si>
-  <si>
-    <t>Although more than a month has passed since the level of activity of the Nevado Volcano del Ruiz has risen to orangeSGC.In that sense John Makario Londoño Technical Director of Geoamenazas of the SGC said that the activity of the volcano cannot become part of the landscape and that citizens should not get used to current conditions because it must be kept in mind that they are still anomalous.It is important to remember that one cannot get used to what is not normal. The volcano is not normal or the volcano has an activity that is too high but that with the days one is used to one that although ash comes out that will come backNormal assured.Nevado volcano of the Ruiz Government of Caldas adapts roads to evacuate in case there is eruption.And the thermal anomalies also continue at the bottom of the crater as they have seen this seismicity and this behavior in general has remained for several weeks in a very similar way this does not mean that the volcano already returned to its normal levels on the contrarySeismicity is still very high.John Makario Londoño Technical Director of Geoamenazas of the Colombian Geological Service Photo Colombian Geological Service.The expert states that the level of activity will remain as it is and explained why it will not vary at the moment also pointed out that calm can be a sign of an eruption even if it will not necessarily happen.VOLCÁN NEVADO DEL RUIZ on May 2 Photo Cortesía Colombian Geological Service.This orange level will still persist because the volcano has not returned to the levels that had a second months ago we cannot change to red either because the eruption one does not know if it will happen or not really and third it is important to remember that sometimes the volcanoHe has shown that when he calms long after he had a seismic activity and another much higher type is when he has erupted.Attentive this is what you should do before during and after the eruption of a volcano.In order for the level of activity to go to yellow, a prudential time has to spend where trends and patterns can be observed that allow inferring the possible decrease in activity which can be extended to several weeks.Thus, the expert asked not to stop paying attention to the information issued by the authorities.The SGC constantly monitors the activity of the Nevado Del Ruiz Volcano Photo Geological Service of Colombia.It is important to be very pending does not mean that at this time it will have to make an eruption but that these conditions sometimes make the authorities and the general community get used to certain levels of activity that I return and I repeat are not normal, we mustBe very attentive to the official information of the Colombian Geological Service and the National Unit of this risk and in the same way with the local and departmental authorities of Risk Management wrote</t>
+    <t>Nevado del Ruiz volcano why you shouldn't relax and what has to happen for the level of activity to drop</t>
+  </si>
+  <si>
+    <t>Although more than a month has passed since the level of activity of the Nevado del Ruiz volcano rose to orange, the probability that it will erupt more than it has in the last ten years is still latent, according to the Colombian Geological Service. SGC</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-gobernacion-de-caldas-adecua-vias-para-evacuar-en-caso-de-que-haya-erupcion/202321/
 </t>
   </si>
   <si>
-    <t>Nevado volcano of the Ruiz Government of Caldas adapts roads to evacuate in case there is eruption</t>
-  </si>
-  <si>
-    <t>The Caldas Government remains working continuously and jointly through the Ministry of Infrastructure with the municipal authorities of Villamaría and Neira in addition to the National Army the National Institute of Roads Invías and the community that lives in the vicinity of the Nevado del Ruiz volcano with theobjective of guaranteeing the inhabitants of these sectors evacuation roads in case of a possible eruption.We are in the period of enlistment by worrying signals of the Nevado volcano of the Ruiz Director of Risk Management.Periodic maintenance has been carried out in these road axes today there are 20 kilometers intervened by the machinery combo that the departmental government Villamaría El Parnaso is willCaldas infrastructure.The Nevado del Ruiz has jurisdiction in Villamaría Caldas Murillo Vista Hermosa and Casabianca Tolima Photo Archive Week.Intervened routes and sectors.The banishment is hit by the web of the Condor Route 50 meters served.The Montenegro Playa Larna Sector Parnasso Montenegro 35 kilometers served.Gallinazo the Luis Prieto Ramal Tree 700 meters served.Villamaría Chupaderos Gallinazo 200 meters served.Villamaría El Parnaso La Zulia Campo Alegre sectors Villamaría La Guayana Potosí Campoalegre 1462 kilometers served.Caldas governorate attends the evacuation routes surrounding the Nevado del Ruíz volcano.The combos of machinery in the road areas mentioned have been advancing works and activities of maintenance of hydraulic works and reconformation of gutters in addition to supply and compacted of affirmed among others.With seismicity and ash has been the snowy volcano of the Ruiz Photo SGC.Jorge Orbay Marín Mayor of Villamaría highlighted in this regard we are achieving some totally passable roads that, although winter we have affected us we have taken some strategies.The Nevado del Ruiz volcano is heating more there are risks.In turn, Alexander Mendieta inhabitant of the Long Beach sector specified the changes that have been seen on the roads are now delayed by lowering Villamaría without a doubt, the work of the machinery is noticed.Panorama of the Nevado del Ruiz volcano this Monday, May 8.More than a month and a week after activated the orange alert by the activity in the snowy volcano of the reuiz the Colombian geological service reported that the seismic activity related to the movement of fluids inside the volcanic ducts persists this seismicity has presented a slightIncrease in the number of earthquakes and the seismic energy released compared to the immediately previous weekend.Some of these signs have been related to ash pulsatile emissions confirmed through the web chambers used for volcanic monitoring in parallel continues the seismicity record associated with rock fracturing inside the volcanic building which showed similar behavior in theNumber of earthquakes and seismic energy compared to the previous day May 6.Nevado del Ruiz volcano has had frequent and unstable activity photo courtesy Colombian Geological Service.The earthquakes were located in the Arenas Crater and in a dispersed way around it at a maximum distance of 6 km and at depths between 1 and 5 km these indicators ratify that the activity of the Nevado del Ruiz volcano remains very unstable and that it is necessary to continue withPrevention measures.It is possible that the levels of seismic activity as well as the levels of the degasification or exit of ash decrease or oscilatory in the sense of increasing a few days and decreasing others, however, this does not imply that the volcano has returned to its normal levels of activity due to thethat it is recommended not to get used to these oscillatory changes of activity and think that it is a normal volcano activity</t>
+    <t>Nevado del Ruiz Volcano Government of Caldas adapts routes to evacuate in case of an eruption</t>
+  </si>
+  <si>
+    <t>The Government of Caldas continues to work continuously and jointly through the Infrastructure Secretariat with the municipal authorities of Villamaría and Neira, as well as the National Army, the National Institute of Invías and the community that lives in the vicinity of the Nevado del Ruiz volcano with the objective of guaranteeing the inhabitants of these sectors evacuation roads in case of a possible eruption</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atento-esto-es-lo-que-debe-hacer-antes-durante-y-despues-de-la-erupcion-de-un-volcan/202345/
@@ -110,288 +239,84 @@
     <t>Attentive this is what you should do before during and after the eruption of a volcano</t>
   </si>
   <si>
-    <t>Since March 30, the Nevado del Ruiz volcano is at a level of activity II that indicates probable eruption in the end of days or weeks the alert situation led to emergency agencies and authorities of the area of influence to begin the activation ofEmergency plans.The process advances with the realization of censuses the preventive evacuation of the inhabitants of the area of influence in the departments of Caldas Quindío Risaralda and Tolima and the transfer of minors to safe areas where relatives.Throughout this process the visit to the area of influence includes the delivery of emergency kits and education days to the community but knows what to do in case of an emergency for eruption of the Nevado del Ruiz volcano depending on the area in which it is located.Villagers living near the Nevado del Ruiz Photo Colprensa.Faced with this issue there are several fundamental recommendations that relief agencies such as Firefighters Red Cross and Civil Defense deliver to the community and that are of universal application. The first thing to do is have prepared an emergency kit, it must contain.First aid kit with bandages for minor cuts gauze dressing tips and scissors and antibiotic ointment.Non -perishable foods such as protein bars Dry cereals Granola peanut butter Dry fruit meats canned fruits and vegetables pasteurized milk and fruit juices.Drinking water.Face mask.The beneficiaries are inhabitants of the rural area of Villamaría Caldas Photo courtesy of Caldas.Battery radio or crank.Lantern with spare batteries.Safety glasses.The prescription medications for family members and analgesics for the stomach and allergies.Can opener.Health and personal hygiene items.Cell phone chargers.Extra cash.Blankets or sleeping bags.The Nevado del Ruiz volcano is heating more there are risks.Before the eruption.Identify whether in your community there is volcanic threat and try not to be within your area of influence.Be alert to the instructions given by the authorities and follow the recommendations.Place adhesive tape in the windows due to shock waves that explosions can cause.Cover the water tanks to avoid contamination by the ash fall.Find out and have identified the evacuation route that must be followed.Verify the most appropriate and less exposed evacuation route for the effects of the eruption, these must be oriented to higher lands.Protect animals away from pets and grazing animals from the areas near the rivers.Manizales began with the call chain to the vulnerable population Photo Magda Jimena Ríos Bedoya.During a volcanic eruption.Keep calm.Look for shelter on a roof if you do not find it, try to breathe through a moistened water or vinegar fabric to avoid the passage of gases and volcanic dust.Protect your eyes closing them as much as possible wear protective glasses.If the authorities decide to establish the evacuation, take the family luggage that has already prepared limiting the luggage to what each person can transport by hand.Nevado del Ruiz volcano The ashes are harmful to health.Although the eruption seems quiet, he does not approach the volcano.Look for protection to higher places and do not remain near rivers or streams.Look well in the water stream and the material that transports before crossing a bridge.Disconnect electricity and close water and gas keys.Increase in cloudiness probability of low density rains and mostly cloudy sky Photo Cutsam Ideam is foreseen.Use the phone as much as possible and close the house very well when leaving it.If you are surprised by a gase cloud, protect yourself with a moistened fabric in water or vinegar.If you have knowledge of a slip or any other novelty with the tributaries or the slopes that it generates alert you must immediately inform the authorities and the neighbors.After the eruption.Stay in a safe place until the authorities report the measures to follow.Keep in mind that the accumulation of volcanic matter on roofs can generate its collapse</t>
+    <t>Since March 30, the Nevado del Ruiz volcano has been at level II activity, indicating a probable eruption in a matter of days or weeks. The alert situation led emergency agencies and authorities in the area of ​​influence to begin activating emergency plans</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-se-esta-calentando-mas-hay-riesgos/202347/
 </t>
   </si>
   <si>
-    <t>The Nevado del Ruiz volcano is heating more there are risks</t>
-  </si>
-  <si>
-    <t>The director of Geoamenazas of the Colombian Geological Service SGC John Makario Londoño delivered a new report on the behavior of the Nevado del Ruiz volcano that threatens to erupt for a month in term of days or weeks.The tremors associated with the fracturing of rock and the movement of fluids inside the volcanic ducts are also identified, a gase and ash column that reached a height of 1800 meters measured from the top of the Ruiz was also identified.Attentive they reduce the perimeter of risk by possible eruption of the Nevado del Ruiz volcano.Several important thermal anomalies were observed from the satellite monitoring platforms at the bottom of the crater whose values are higher of those reported in recent days and similar to those presented in 2015, the official explained.Anomalies have been detected that have reached higher values than those that have been detected in previous days and similar to those that occurred with the location of the lava dome at the bottom of the crater exceeding up to 500 degrees.Nevado volcano of the Ruiz April 10 of 2023 730am at 25000 feet above the level of the MA photo supplied to week.This does not mean that the eruption is imminent on the contrary is one of the parameters that warns about the threat within the framework of the orange alert that translates into a possible emergency for its unstable activity as it happens since March 30.In other words, the anomalies that the crater bottom has is an expected element in the middle of the attention that there are these anomalies although they are greater than those that have occurred in these previous days does not mean that the volcano is in an imminent eruption clarified.Possible eruption of the Nevado del Ruiz volcano here are the cities and municipalities that would be most affected by an emergency.With all this Londoño added that it is important to continue with the constant monitoring and follow the recommendations of the local authorities the National Unit for Disaster Risk Management and the Colombian Geological Service.Nevado del Ruiz volcano The ashes are harmful to health.The Nevado del Ruiz volcano continues on orange alert due to the probability of erupting in the term of days or weeks its unstable activity has been manifested with anomalies at the bottom of the crater increase in earthquakes and continuous emission of ashes. The Colombian geological service explained the scopeand complications of the last phenomenon.In the first place, he defined that this type of particles with a size less than two millimeters can be glass rocks or mineral crystals The combination can vary depending on the type of volcano and eruption according to the suspicions of the experts, one of the emergencies could occur very soonlarger of the last ten years.Activity of the Nevado del Ruiz volcano this April 10 Photo Cortesía Colombian Air Force.Ash is the result of the behavior that occurs in this case inside the Nevado del Ruiz in an eruptive process the pressure of the magma and its gases can fragment the rock inside the volcano in pieces These fragments come out at high speed through the craterand have fallen into several regions of the coffee axis.Its fall has favorable points for the environment, for example, its accumulation on Earth can enrich the minerals available on the ground since in its composition the magnesium and potassium sodium abounds that are fundamental elements for plants on the other hand, it was evidenced thatYes there are health complications.View of the Nevado del Ruiz volcano this Wednesday, April 26, Courtesy of Colombian Geological Service.This was detailed by the Colombian geological service large amounts of ash in the atmosphere can affect the quality of water and air and generate harmful effects on the respiratory system, this depends on the proximity to the volcano and the direction of its dispersion often the phenomenon is feltin the department of Caldas and Tolima.The Ministry of Health explained that due to the fall of this material the airways can be affected, so the use of the cappes is recommended if ocular symptoms are presented such as irritation discomfort and tearing the entity suggested to perform careful washing with clean water for clean water forstop complications from ash</t>
+    <t>The Nevado del Ruiz volcano is heating up more there are risks</t>
+  </si>
+  <si>
+    <t>The director of geohazards of the Colombian Geological Service SGC John Makario Londoño delivered a new report on the behavior of the Nevado del Ruiz volcano that has threatened to erupt for a month in terms of days or weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/medellin/articulo/volcan-nevado-del-ruiz-las-cenizas-son-nocivas-para-la-salud/202325/
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano the ashes are harmful to health</t>
+  </si>
+  <si>
+    <t>The Nevado del Ruiz volcano remains on orange alert due to the probability of erupting within days or weeks Its unstable activity has manifested itself with anomalies in the bottom of the crater, an increase in earthquakes and continuous ash emission The Colombian Geological Service explained the scope and complications of the latter phenomenon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atentos-reducen-el-perimetro-de-riesgo-por-posible-erupcion-del-volcan-nevado-del-ruiz/202330/
+</t>
+  </si>
+  <si>
+    <t>Careful reduce the risk perimeter for possible eruption of the Nevado del Ruiz volcano</t>
+  </si>
+  <si>
+    <t>In Manizales, a new Unified Command Post was developed to analyze everything related to the Nevado del Ruiz volcano under the leadership of the new director of the National Disaster Risk Management Unit Olmedo López</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-sigue-inestable-asi-registran-las-autoridades-su-actividad/202344/
 </t>
   </si>
   <si>
-    <t>The Nevado del Ruiz volcano remains unstable thus registered the authorities for their activity</t>
-  </si>
-  <si>
-    <t>The Colombian geological service advances in the 247 monitoring on the Nevado del Ruiz volcano that is at the level of orange activity or II which indicates probable eruption in term of days or weeks according to the declaration delivered since March 30</t>
+    <t>The Nevado del Ruiz volcano remains unstable, this is how the authorities record its activity</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service advances in monitoring 247 on the Nevado del Ruiz volcano, which is at orange or II activity level, which indicates a probable eruption in a term of days or weeks according to the declaration delivered since March 30.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/estudiantes-de-cinco-colegios-retomaran-clases-presenciales-luego-de-permanecer-en-casa-por-la-alerta-naranja-en-el-volcan-nevado-de-ruiz/202336/
 </t>
   </si>
   <si>
-    <t>Students from five schools will resume face -to -face classes after staying at home for the orange alert in the Nevado de Ruiz volcano</t>
-  </si>
-  <si>
-    <t>After the orange alert declaration for the imminent risk of eruption of the Nevado del Ruiz volcano at least 30 educational institutions located in the area of influence decided to adopt the virtual classes modality as a preventive measure</t>
+    <t>Students from five schools will resume face-to-face classes after staying at home due to the orange alert at the Nevado de Ruiz Volcano</t>
+  </si>
+  <si>
+    <t>After the declaration of an orange alert due to the imminent risk of eruption of the Nevado del Ruiz volcano, at least 30 educational institutions located in the area of ​​influence decided to adopt the modality of virtual classes as a preventive measure.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/no-paran-los-temblores-en-el-volcan-nevado-del-ruiz-este-es-el-nuevo-reporte-del-servicio-geologico-colombiano/202348/
 </t>
   </si>
   <si>
-    <t>The tremors in the Nevado del Ruiz volcano do not stop This is the new report of the Colombian Geological Service</t>
-  </si>
-  <si>
-    <t>The SGC Colombian Geological Service continues to monitor the Nevado del Ruiz volcano due to the risk of eruption because its level of continuous activity in orangeeruption in days or weeks</t>
+    <t>The tremors in the Nevado del Ruiz volcano do not stop this is the new report of the Colombian Geological Service</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atencion-se-registra-temblor-en-la-zona-de-influencia-del-volcan-nevado-del-ruiz/202314/
 </t>
   </si>
   <si>
-    <t>Tremor is recorded in the area of influence of the Nevado del Ruiz volcano</t>
-  </si>
-  <si>
-    <t>The Colombian Geological Service confirmed the occurrence of an earthquake with an epicenter in one of the municipalities located in the area of influence of the Nevado del Ruiz volcano</t>
+    <t>Tremor is registered in the area of ​​influence of the Nevado del Ruiz volcano</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service confirmed the occurrence of an earthquake with an epicenter in one of the municipalities located in the area of ​​influence of the Nevado del Ruiz volcano.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/puede-desatarse-una-alerta-roja-en-el-volcan-nevado-del-ruiz-en-los-proximos-dias/202352/
 </t>
   </si>
   <si>
-    <t>A red alert can be unleashed in the Nevado del Ruiz volcano in the next few days</t>
-  </si>
-  <si>
-    <t>There are many concerns that arise between the community in relation to the activity of the Nevado del Ruiz volcano that is at the level of orange activity since March 30, 2023, so it has permanent monitoring by the Colombian Geological Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/articulo/el-volcan-nevado-del-ruiz-tiene-un-leve-incremento-en-la-energia-sismica-nuevo-reporte-del-servicio-geologico-colombiano/202305/
-</t>
-  </si>
-  <si>
-    <t>The Nevado del Ruiz volcano has a slight increase in the seismic energy New Report of the Colombian Geological Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-sigue-siendo-muy-inestable-en-los-primeros-dias-de-mayo/202354/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano is still very unstable in the first days of May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-detectan-una-luz-roja-desde-el-espacio-de-que-se-trata/202326/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano detect a red light from the space of what it is</t>
-  </si>
-  <si>
-    <t>Satellite registered images highlighted a red point issued from the Nevado del Ruiz volcano whose activity remains on orange alert due to the risk of making the largest eruption of the last ten years in terms of days or weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/articulo/asi-se-ve-el-volcan-nevado-del-ruiz-desde-el-espacio/202349/
-</t>
-  </si>
-  <si>
-    <t>This is how the Nevado del Ruiz volcano is seen from space</t>
-  </si>
-  <si>
-    <t>The SGC Colombian Geological Service made more than one delire with an image of the Nevado del Ruiz volcano from space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/asi-esta-el-nevado-del-ruiz-las-imagenes-del-volcan-que-ya-cumple-un-mes-en-alerta-naranja/202340/
-</t>
-  </si>
-  <si>
-    <t>This is the snowy of the Ruiz the images of the volcano that already celebrates a month on orange alert</t>
-  </si>
-  <si>
-    <t>A month after the increase in the level of activity of the Nevado from the Ruiz from Yellow to Orange, permanent monitoring of the volcanic building by the technicians and professionals of the SGC Colombian Geological Service is maintained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-sigue-amenazando-con-erupcion-nuevo-informe-del-servicio-geologico-colombiano/202313/
-</t>
-  </si>
-  <si>
-    <t>The Nevado del Ruiz volcano continues to threaten with a new eruption report of the Colombian Geological Service</t>
-  </si>
-  <si>
-    <t>The Colombian Geological Service issued a new report on the behavior that the Nevado del Ruiz volcano had on Monday, which threatens to make the largest eruption of the last decade, so the orange alert is kept activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-estos-son-los-municipios-que-deberian-evacuar-inmediatamente-por-posible-erupcion/202353/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano These are the municipalities that should immediately evacuate for possible eruption</t>
-  </si>
-  <si>
-    <t>A month from the orange alert declaration, the activity of the Nevado del Ruiz volcano continues to be very unstable, thermal anomalies also persist at the bottom of the crater which can be observed from satellite monitoring platforms as well as the shield of sulfur dioxide tothe atmosphere and the water vapor exit in the volcano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-en-vivo-un-mes-de-en-alerta-naranja-que-ha-pasado/202323/
-</t>
-  </si>
-  <si>
-    <t>Ruiz snowy volcano a month of orange alert what happened</t>
-  </si>
-  <si>
-    <t>The SGC Colombian geological service continues to monitor the Nevado del Ruiz volcano due to risk of eruption so its level of continuous activity in orangeeruption in days or weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-en-vivo-el-servicio-geologico-sigue-monitoreando-el-riesgo-de-erupcion-en-este-puente-festivo/202359/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano live communities near the crater should be evacuated immediate</t>
-  </si>
-  <si>
-    <t>The SGC Colombian Geological Service continues to monitor the Nevado del Ruiz volcano due to the risk of eruption, so its level of continuous activity in orangeof April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/avanza-el-mantenimiento-de-las-vias-que-rodean-el-volcan-nevado-del-ruiz/202341/
-</t>
-  </si>
-  <si>
-    <t>The maintenance of the roads surrounding the Nevado del Ruiz volcano progresses</t>
-  </si>
-  <si>
-    <t>The departments that have locations in the area of influence of the Nevado del Ruiz volcano advance in the preparation process against a possible eruption due to the level of orange activity in which the place is located</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-en-vivo-erupcion-se-podria-dar-en-dias-o-semanas/202357/
-</t>
-  </si>
-  <si>
-    <t>Snowy Ruiz volcano live increases seismic activity</t>
-  </si>
-  <si>
-    <t>The Colombian Geological Service SGC maintains the orange alert on the Nevado Del Ruiz volcano due to the risk of eruption according to the analysis could be the largest emergency of the last ten years this has behaved this Thursday, April 27, April 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/vida-moderna/articulo/mhoni-vidente-hace-sorpresiva-prediccion-sobre-nevado-del-ruiz-para-2023-es-el-ano-de-los-volcanes/202311/
-</t>
-  </si>
-  <si>
-    <t>Mhoni Vidente makes a surprising prediction about Nevado del Ruiz for 2023 is the year of volcanoes</t>
-  </si>
-  <si>
-    <t>Mhoni seer has undoubtedly become one of the most famous tarotistas and seers throughout Latin America as a result of the contents it generates in the different social networks and the predictions he has made in recent times as the death of Joan Sebastian's son</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/estas-son-las-alertas-del-ideam-por-lahares-para-los-afluentes-que-nacen-en-el-volcan-nevado-del-ruiz/202331/
-</t>
-  </si>
-  <si>
-    <t>These are the alerts of the ideam by lahares for the tributaries born in the Nevado del Ruiz volcano</t>
-  </si>
-  <si>
-    <t>The Colombian Geological Service continues to monitor the behavior of the Nevado Volcano of the Ruiz that has the level of activity in orange or II which indicates probable eruption in the term of days or weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-en-vivo-cuatro-increibles-panoramicas-de-este-miercoles/202359/
-</t>
-  </si>
-  <si>
-    <t>VOLCÁN NEVADO DEL RUIZ LIVE Verify the response capacity of the municipalities in the area of influence</t>
-  </si>
-  <si>
-    <t>The Nevado del Ruiz volcano remains on an orange alert due to the probability of making the largest eruption of the last ten years while the communities are ready to face the possible emergency, experts do not raise the magnifying glass on their activity, thus has behaved this Wednesday 26 ofApril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-actividad-del-volcan-nevado-del-ruiz-habilitan-nuevas-camas-uci-en-caldas/202317/
-</t>
-  </si>
-  <si>
-    <t>By activity of the Nevado del Ruiz volcano enable new UCI beds in Caldas</t>
-  </si>
-  <si>
-    <t>The preparation in Caldas progresses before a possible eruption of the Nevado del Ruiz volcano which was declared at the level of activity II or orange since March 30 by the Colombian Geological Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/cruz-roja-colombiana-implementara-un-sistema-de-alerta-comunitaria-por-la-actividad-del-volcan-nevado-del-ruiz/202344/
-</t>
-  </si>
-  <si>
-    <t>Colombian Red Cross will implement a community alert system due to the activity of the Nevado del Ruiz volcano</t>
-  </si>
-  <si>
-    <t>The preparation in Colombia continues and in a special way in the area of influence of the Nevado del Ruiz volcano this before a possible eruption of it taking into account that the level of activity in II or orange is maintained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/servicio-geologico-colombiano-insiste-en-riesgo-de-erupcion-del-volcan-nevado-del-ruiz/202349/
-</t>
-  </si>
-  <si>
-    <t>Colombian Geological Service insists at risk of eruption of the Nevado del Ruiz volcano</t>
-  </si>
-  <si>
-    <t>The SGC Colombian Geological Service shared a new extraordinary report on the behavior of the Nevado del Ruiz volcano, the findings continue to show elements to the possible eruption that could be given in the coffee axis in a matter of days or weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/articulo/posible-erupcion-del-nevado-del-ruiz-podria-generar-una-reaccion-en-cadena-y-activar-otros-volcanes-en-el-pais/202301/
-</t>
-  </si>
-  <si>
-    <t>Possible eruption of the Nevado del Ruiz would generate a chain reaction and activate other volcanoes here the answer</t>
-  </si>
-  <si>
-    <t>A possible eruption of the Nevado del Ruiz volcano keeps the country in suspense and especially the inhabitants of the surrounding towns and cities that could be affected by a possible natural event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/medellin/articulo/volcan-nevado-del-ruiz-en-vivo-se-mantiene-alerta-naranja-por-riesgo-de-erupcion/202312/
-</t>
-  </si>
-  <si>
-    <t>The SGC Colombian Geological Service reported that the activity of the Nevado del Ruiz volcano remains unstable, so it is important</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-fallas-en-el-internet-y-masivos-rayos-son-senales-de-erupcion/202307/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz Volcano Internet failures and massive rays are signs of eruption</t>
-  </si>
-  <si>
-    <t>It is necessary to recognize the possibility of an eruption of the Nevado del Ruiz volcano is something that scares in a country like Colombia where there was an antecedent with the Tolimense population of Armero Pueblo that was literally buried by the Las Piedras mud and the hot lava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-en-vivo-26-dias-de-inestabilidad-y-riesgo-de-erupcion/202333/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano live five photos of the unstable activity that threatens erupting</t>
-  </si>
-  <si>
-    <t>The SGC Colombian Geological Service activated the orange level in the activity of the Nevado del Ruiz volcano on March 24 due to the probability of making the largest eruption of the last ten years since then the instability that led to the authorities to be on alert is maintainedmaximum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-reportan-sismo-de-magnitud-17-en-municipio-cercano/202342/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano report magnitude 17 in nearby municipality</t>
-  </si>
-  <si>
-    <t>In the last hours the Colombian geological service reported that the activity of the Nevado del Ruiz volcano is still very unstable persists the high temperatures at the bottom of the crater and emission of gases with all this the orange alert is maintained due to the risk of eruption in daysor weeks as noted since last March 30 of this year 2023 when alarms were lit in four departments for possible complications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-alerta-naranja-se-mantendra-por-varias-semanas/202329/
-</t>
-  </si>
-  <si>
-    <t>Nevado volcano of the Ruiz Orange alert will remain for several weeks</t>
-  </si>
-  <si>
-    <t>The Colombian geological service reported that the activity of the Nevado del Ruiz volcano remains very unstable persists the high temperatures at the bottom of the crater and gas emission</t>
+    <t>A red alert may be unleashed in the Nevado del Ruiz Volcano in the coming days</t>
+  </si>
+  <si>
+    <t>There are many concerns that arise among the community in relation to the activity of the Nevado del Ruiz volcano, which has been at an orange level of activity since March 30, 2023, for which reason it has permanent monitoring by the Colombian Geological Service.</t>
   </si>
 </sst>
 </file>
@@ -754,16 +679,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="190.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="120.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="151.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -821,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -917,246 +841,161 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
         <v>82</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/eltiempo.xlsx
+++ b/eltiempo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\josesanabria\TraduccionLimpieza\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\josesanabria\AnalisisSentiemientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD61F88-B7D5-440E-80EB-017C18B044F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBEEB15-018C-4289-A8CB-5915246E946C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,321 +20,489 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/se-conocen-nuevas-hipotesis-sobre-los-gases-que-salen-de-la-laderas-de-cerro-bravo-en-la-via-manizales-fresno/202344/
-</t>
-  </si>
-  <si>
-    <t>Atentos: primera gran conclusión sobre gases que emanan de laderas de Cerro Bravo, entre Manizales y Fresno. No son volcánicos</t>
-  </si>
-  <si>
-    <t>Tal como lo había anunciado el Servicio Geológico Colombiano (SGC), el día de ayer (domingo 21 de mayo), realizó análisis geoquímicos para determinar las causas de la anomalía que se está presentando de las laderas del volcán Cerro Bravo.
-Según los resultados de los análisis, el SGC confirmó que esta anomalía no está relacionada con eventos geológicos, y en particular con la actividad del volcán Cerro Bravo o del volcán Nevado del Ruiz, ubicado a aproximadamente 22 km de distancia y en nivel Naranja.
-Gases en la vía Manizales - Fresno no serían originados por el volcán Cerro Bravo
-Al igual que en las mediciones previas, se registraron altas concentraciones de gas metano (CH4), muy superiores a las que este gas suele tener en áreas volcánicas en el país y el mundo. Sumado a esto, no se ha registrado ningún cambio en la actividad del volcán -Cerro Bravo-, el cual hasta el momento continúa estable y se mantiene en nivel de actividad Verde (activo, pero en reposo).
-Adicionalmente, la ausencia de gases de origen volcánico como el dióxido de azufre (SO2) hacen aún más improbable este origen.
-La montaña es conocida como Cerro Bravo y está ubicada antes del Alto de Letras - Foto: Pantallazo video Tik Tok @jery..operador.560
-Entonces, ¿qué causa este fenómeno?
-Aunque se corroboró que en el punto de la anomalía el suelo registra altas temperaturas, cercanas a los 700 grados centígrados, no se encontró ningún indicador que demuestre que estas temperaturas, así como la salida de gases y vapores, tengan relación con la actividad del volcán, pues se encuentran muy focalizados y superficiales.
-Teniendo en cuenta que desde el 13 de mayo, cuando se recibió el reporte de la salida de gases en el sector, el SGC inspeccionó el lugar y sus alrededores, es importante recordar que la temperatura continúa aumentando, puesto que el pasado sábado habían reportado 600 grados centígrados.
-A partir de ese momento, la entidad ha estado presente en la zona y ha realizado todos los análisis correspondientes que incluyen, además de las mediciones geoquímicas, de temperatura del suelo y el reconocimiento geológico, cinco comisiones de campo en las que han participado varios especialistas.
-Flamas en Cerro Bravo - Foto: Captura de vídeo
-Los resultados obtenidos permiten deducir que esta anomalía tendría un origen diferente al volcánico, probablemente orgánico o producto de actividades humanas, por lo que de ahora en adelante los análisis están más allá de la competencia del SGC.
-Aunque el Servicio Geológico continuará apoyando a las autoridades locales y a los demás actores involucrados en todo lo relacionado con el conocimiento volcánico, es urgente la participación de otras entidades del orden nacional, con competencias en temas ambientales y de riesgo; así como de infraestructura vial, para la generación de nuevos datos que permitan determinar y delimitar el origen de este fenómeno.
-Atención: suspendieron el paso de gas natural en el tramo Mariquita–Cali por emergencia en tubería
-Fuego en las laderas
-Aunque se esclareció que este fenómeno no está relacionado con la actividad del Nevado del Ruíz, curiosos han estado llegando hasta el lugar para presenciar este fenómeno, suceso que ha quedado en video y ha sido difundido por redes sociales.
-En los clips se ve claramente cuando un ciudadano introduce una rama en una abertura al costado de la carretera y poco a poco se empieza a encender y a aumentar la flama.
-Flamas en Cerro Bravo - Foto: Captura de vídeo
-Transeúntes y habitantes del sector se han acercado a la zona, haciendo pequeños experimentos como poner hojas o ramas para ver en cuánto tiempo se consume.
-El día de ayer, domingo 21 de mayo, el Ministerio de Minas y Energía aseguró que de acuerdo con el reporte técnico, los valores de temperatura del subsuelo en este punto -Cerro Bravo- alcanzaron los 600 °C.
-Teniendo en cuenta que esta condición anormal, ubicada a una distancia de 1,5 metros y 1,80 metros de profundidad, está afectando el adecuado funcionamiento de la tubería correspondiente al gasoducto Mariquita-Cali, la empresa TGI decidió de manera preventiva aislar el tramo expuesto al riesgo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/alerta-fuego-en-las-entranas-de-cerro-bravo-en-la-via-manizales-fresno-asi-quedo-registrado-en-un-video/202312/
-</t>
-  </si>
-  <si>
-    <t>Fire alert in the bowels of Cerro Bravo on the Manizales-Fresno road This was recorded in a video</t>
-  </si>
-  <si>
-    <t>In recent days, concern in the department of Caldas has increased after the discovery of gases coming out of one of the slopes of the sector known as Cerro Bravo on the Manizales-Fresno highway. According to the Colombian Geological Service SGC, it is unlikely that these gases are really of volcanic origin. According to the results of the inspections and studies carried out up to now, this anomaly is not due to the activity of this volcano and the possibility arises that is due to the degradation of organic matter in the place, the statement indicates. Although it was clarified that this phenomenon is not related to the activity of Nevado del Ruíz, curious people have been coming to the place to witness this phenomenon, an event that has been left on video and has been broadcast on social networks. Flames in Cerro Bravo Photo Video capture. In the clips it is clearly seen when a citizen inserts a branch into an opening on the side of the road and little by little the flame begins to ignite and increase. Passersby and residents of the sector have approached the area doing small experiments such as putting leaves or branches to see how long it takes to consume. Flames in Cerro Bravo Photo Video capture. Although the SGC announces that it will continue with the investigations in accordance with its geoscientific experience, it explains that in the measurement of May 17 it was possible to verify that the methane gas that comes out of the slope of the Cerro Bravo volcano located near the municipality of Herveo Tolima has concentrations much higher than those of the volcanic areas, including those of Nevado del Ruíz itself. Gases on the Manizales Fresno highway would not originate from the Cerro Bravo volcano. The Ministry of Mines pronounces. Due to the thermal anomaly associated with the subsoil and that was detected in the sector known as Cerro Bravo in the municipality of Herveo Tolima, the Ministry of Mines and Energies responded to the situation and sent some warnings to the citizens. MinMinas assured that according to the technical report the subsoil temperature values ​​at this Cerro Bravo point reached 600 C. Taking into account that this abnormal condition located at a distance of 15 meters and 180 meters deep could affect the proper operation of the pipe corresponding to the MariquitaCali gas pipeline, the company TGI decides preventively to isolate the section exposed to risk. On the other hand, the results of the inspections and analyzes carried out so far by the Colombian Geological Service SGC, this anomaly is not due to the activity of the Cerro Bravo volcano, which is currently in an active green level but at rest. Nevado del Ruiz Volcano to improve communication in the municipalities of influence will install more than 50 antennas. However, in order to contribute to the clarification of the origin of this phenomenon, this Sunday specialists from this entity will again take measurements of the soil temperature and will evaluate the presence of sulfur dioxide S02, they will inspect the incandescence that exists in one of the exit points of gases and estimate the flux of various gases present in the soil carbon dioxide C02 hydrogen sulfide H2S and methane CH4. Cerro Bravo is a stratovolcano composed of several layers of hardened lava and pyroclastic Photo Screenshot video Tik Tok jeryoperador560. From the Ministry of Energy, together with the marketing companies, users, in particular the inhabitants of the departments of Caldas, Tolima, Risaralda, Quindío, Valle del Cauca and Cauca, are invited to make efficient use of natural gas while the service is restored, they expressed. It should be noted that since the case report, the CNO National Natural Gas Operation Council, led by the Ministry of Energy and of which national government entities and the marketing and transportation companies are a part, have been advancing urgent technical and operational actions to have alternatives for connections and gas transport and mitigate the affectation in the provision of the service to users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/gases-en-la-via-manizales-fresno-no-serian-originados-por-el-volcan-cerro-bravo/202319/
-</t>
-  </si>
-  <si>
-    <t>Gases on the Manizales Fresno highway would not be caused by the Cerro Bravo volcano</t>
-  </si>
-  <si>
-    <t>From the Colombian Geological Service SGC, information has been released according to which it is unlikely that the gases that come out of one of the slopes of the sector known as Cerro Bravo on the Manizales Fresno road are really of volcanic origin. According to the results of the inspections and studies carried out so far, this anomaly is not due to the activity of this volcano and the possibility is open that it is due to the degradation of organic matter in the place, the statement indicates. They have not determined the cause of the gas outlet from the Cerro Bravo sector. Photo Courtesy of the Colombian Geological Service. It is also made clear that this phenomenon is not related to the activity of the Nevado del Ruíz volcano, which is located approximately 22 kilometers from Cerro Bravo and remains at an orange level. Although the SGC announces that it will continue with the investigations in accordance with its geoscientific experience, it explains that in the measurement of May 17 it was possible to verify that the methane gas that comes out of the slope of the Cerro Bravo volcano located near the municipality of Herveo Tolima has concentrations much higher than those of the volcanic areas, including those of Nevado del Ruíz itself. It is also recalled that the analysis and comprehensive evaluation of the monitoring parameters of the Cerro Bravo volcano show a stable behavior, which means that it is an active complex but at rest and with very little activity. Attention Risaralda is no longer part of the evacuation zone of the Nevado del Ruiz volcano. This volcano has been monitored since September 1995, presenting a level of green activity over time, as in recent days. Based on this, from the SGC we can infer that this anomaly is not related to the activity of the Cerro Bravo volcano, the entity specifies. Among the points that the SGC indicates to rule out that the gases come from volcanic activity is the superficiality of the phenomenon due to the fact that it occurs in a specific area of ​​Cerro Bravo and that there is no additional change in its surroundings. The mountain is known as Cerro Bravo and is located before Alto de Letras Photo Screenshot video Tik Tok jeryoperador560. The concentrations of methane gas found in addition to the stability of the Cerro Bravo volcano during the 28 years in which it is being monitored are also taken into account. Precisely as it is a superficial phenomenon, the SGC indicates that the anomaly does not generate any impact on the Cerro Bravo volcano system nor on Nevado del Ruíz since each volcano has its own structure and is governed by different dynamics, so the activity of each is independent. It is also important to bear in mind that Transportadora de Gas Internacional TGI analyzed the area carefully and ruled out that it was a leak in the gas pipeline that passes through the area. Nevado del Ruiz Volcano to improve communication in the municipalities of influence will install more than 50 antennas. Although support will be provided to local authorities and entities involved in the investigation, the SGC clarifies that it would not have jurisdiction in the event that the phenomenon is related to the degradation of organic matter. Cerro Bravo is a volcano that is located in the Central Cordillera and is the highest point in the municipality of Herveo in the department of Tolima, reaching 4000 meters above sea level. As the closest populated areas of this volcano formed approximately 50,000 years ago, which is 22 kilometers from Nevado del Ruíz, is the city of Manizales at a distance of just 24 kilometers. The SGC and the Caldas Risk Management Unit are conducting the investigation to determine the cause of the phenomenon Photo Screenshot video Tik Tok jeryoperador560. It is made up of several layers of hardened lava and pyroclasts, but it does not have snow on the summit due to its height. It has two calderas, 15 and 10 kilometers in diameter, and its last eruption is estimated to have occurred in the year 1720.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/pereira/articulo/atentos-risaralda-ya-no-hace-parte-de-la-zona-de-evacuacion-del-volcan-nevado-del-ruiz/202313/
-</t>
-  </si>
-  <si>
-    <t>Attention Risaralda is no longer part of the evacuation zone of the Nevado del Ruiz volcano</t>
-  </si>
-  <si>
-    <t>As a balance of the Unified Command Post N17 that has been carried out in Colombia since March 30, when the orange alert was declared due to activity in the Nevado del Ruiz volcano, it was determined to modify the evacuation zone. The information was revealed by Olmedo López, director of the National Unit for Disaster Risk Management, UNGRD, the entity that indicated that the decision was made with the Colombian Geological Service, which is in charge of monitoring the volcanic building. Activity of the Nevado del Ruiz volcano Photo Week Photo Magda Jimena Ríos Bedoya. According to the official, evacuation work and prevention actions are being maintained to respond to the level of orange activity that remains from the volcano. The area was specified in a polygon where there may be a greater risk and it is required to maintain the preventive evacuation of the population. Due to its irregular shape, it is possible to exclude some areas of immediate evacuation, as is the case of the municipality of Santa Rosa de Cabal, department of Risaralda. the official indicated. He clarified that the analysis of the situation of the volcano led the authorities gathered at the Unified Command Post to determine that in other zones the area to be evacuated will be expanded, as is the case in the vicinity of the channels of the Gualí Azufrado Lagunilla and Recio rivers in the Tolima and Rio Claro in Caldas. Nevado del Ruiz Volcano to improve communication in the municipalities of influence will install more than 50 antennas. It is important to highlight that the preparation work for the response has been carried out within a radius of 15 kilometers where the joint actions of the entities of the national Disaster Risk Management system were activated, such as the adaptation of roads, the definition of evacuation routes, among other actions. asserted. AEstaHora Director of the UNGRD olmedolopezm presides over the Unified Command Post PMU No. 17 to monitor the actions being developed by the entities of the National Disaster Risk Management System SNGRD for the activity of the NevadoDelRuiz Volcano pictwittercommk8gCMbOAL. UNGRD UNGRD May 19, 2023. He stressed that although in the adopted areas there is no municipal seat or populated centers, there are some rural sectors of Caldas and Tolima where immediate evacuation is required. This occurs particularly in areas near rivers where expanded coverage. He asked the municipal risk management councils to verify the exact locations in each jurisdiction and announced that they will have the support of the National Disaster Risk Management Unit for this. The beneficiaries are inhabitants of the rural area of ​​Villamaría Caldas Photo Government of Caldas Photo Courtesy Government of Caldas. In those places already defined between Caldas Risaralda and a sector of Tolima where ash can fall and form accumulations of more than 10 centimeters, an immediate evacuation is not necessary, but it is necessary to adopt particular measures such as preparations for the responses that are defined by each municipal authority highlighted the director Olmedo López. Regarding the animals and people who live in these areas, he clarified that they could present respiratory difficulties and that contamination and obstruction of water sources, partial or total loss of crops and livestock, covering and burying the surface is possible. Due to the activity of the Nevado del Ruiz volcano, they deliver food for the animals located in the area of ​​influence. The director of the UNGRD highlighted that for the high threat areas that are outside the evacuation areas, as is the case of some sectors with mudflows, it is essential to maintain preparations for the evacuation, consolidation of simulation exercises and drills that involve to the communities as well as the verification and adjustment of the early warning system. The zone where the radius of action increases includes in Tolima 16 villages of the municipality of Murillo 3 of Líbano 1 of Herveo 14 of Villahermosa and 6 of Casabianca Additionally, Caldas includes a municipality. This means that we must concentrate our efforts to review, evacuate and accompany the municipalities. Sufficient resources have been allocated to the territory and if they are necessary, more will be involved, he said. Regarding the activity of the Nevado del Ruiz volcano, he highlighted that in recent weeks the level has been maintained, so it is necessary to continue implementing prevention measures and review interventions in the territory. In rural areas, work is underway to update the census Photo Courtesy of the Mayor's Office of Manizales Photo Courtesy of the Mayor's Office of Manizales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-para-mejorar-la-comunicacion-en-los-municipios-de-influencia-instalaran-mas-de-50-antenas/202305/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano to improve communication in the municipalities of influence will install more than 50 antennas</t>
-  </si>
-  <si>
-    <t>In order to advance in the preparation for a possible eruption of the Nevado del Ruiz volcano, the processes of updating the censuses of families located in the area of ​​influence continue, education sessions and adaptation of evacuation routes, among other interventions. Added to this is the announcement made by ICT Minister Mauricio Lizcano Arango related to the installation of 50 new antennas to improve communication for the inhabitants of the area. The minister announced the installation of antennas to improve communications in the area of ​​influence of the volcano Photo Courtesy Gobernación de Caldas. These connection points will be located in areas of Caldas Tolima and Risaralda so that we can connect through antennas the provision of cellular service from the four operators throughout this region, the minister announced. The equipment will be located by the different operating companies The announcements include the location by Tigo of new antennas in the 14 municipalities of the five departments close to Nevado del Ruiz In this specific case, the goal is to achieve a total coverage of 280 points in the volcano boundaries. What is the current status of the active volcanoes in Colombia This is the report of the Colombian Geological Service. According to Lizcano Arango, the objective is to improve the coverage problems in the upper part of Villamaría, the connection problems at kilometer 41, which belongs to Manizales, and in the municipality of Chinchiná and in the upper areas. In Risaralda there are four towns that are also with these kinds of problems. Faced with this issue, it was learned that the operator Claro carries out different actions to reinforce and expand coverage in 24 rural sectors of Caldas, 17 from Risaralda and 13 from Tolima. of some sectors of Manizales Chinchiná and Palestina can keep in touch with the authorities and their families at any time, as well as being a tool to give early warnings. The volcano is still at an orange level of activity. Photo Courtesy of the Caldas Government. To this is added that Wom announced that it is working to increase its coverage by 26 in 41 municipalities with some degree of affectation by the volcano. Finally, TelefónicaMovistar confirmed that it has repowered more than 50 base stations in the area of ​​influence of this volcanic building that It is in orange activity level. The operators are already committed to obligations to do so that God wants nothing happens, but if something happens that we have the capacity to respond to. If nothing happens with the volcano, these communications serve all the communities, the ICT minister asserted. He stressed that the installation of these 50 antennas obeys the strategy that MinTIC created together with mobile satellite and radio telecommunications companies in order to guarantee the quality and coverage of communications in the departments of Caldas Risaralda and Tolima. In addition, we will deliver antennas to relief agencies so that they can communicate in the event of a possible eruption, pointed out the minister who announced the delivery of computers so that children out of school due to the orange alert can continue with their classes. Due to the activity of the Nevado del Ruiz volcano, they deliver food for the animals located in the area of ​​influence. Faced with these announcements, Viviana Morales, ICT secretary of Risaralda, indicated that we are ready to carry out technical support with our entire work group and engineers and thus provide support to the Risk Management units and do the georeferencing and location part in all that they require for the installation of equipment and antennas. From the ICT Ministry they emphasize that these announcements are added to the licenses for public interest broadcasters for emergency care delivered in the last week to the municipalities of Herveo Casabianca Murillo Villahermosa and Santa Isabel in Tolima. They announce the installation of 50 communication antennas Photo Courtesy of the ICT Ministry. We want to thank the minister because a few days ago we were talking about the need to be able to connect the people located in the area that may be the first affected by the emergency, said the governor of Caldas Luis Carlos Velásquez Cardona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/cual-es-la-actualidad-de-los-volcanes-activos-de-colombia-este-es-el-reporte-del-servicio-geologico-colombiano/202356/
-</t>
-  </si>
-  <si>
-    <t>What is the current situation of the active volcanoes in Colombia This is the report of the Colombian Geological Service</t>
-  </si>
-  <si>
-    <t>For more than 45 days in Colombia there have been daily reports of what is happening with the Nevado del Ruiz volcano because on March 30 its level of activity turned orange. But keep in mind that this is not the only active volcano in the country and therefore there are others that are also monitored to determine if they present variations in their behavior. This was the behavior of some of the Colombian volcanoes in the week between May 9 and 15. Cerro Machin volcano. This volcanic edifice continued to record seismic activity related to rock fracturing. According to experts, this seismic activity increased in the number of registered earthquakes and in the seismic energy released with respect to the previous week. The yellow level of activity or type III is maintained. Photo Courtesy of the Colombian Geological Service. The SGC confirms that Cerro Machín is at a yellow level The occurrence of a slight increase in this type of seismicity on May 9 stands out The earthquakes were located mainly between the west and southwest of the main dome and to a lesser extent to the north and south from the volcano at depths between approximately 2 and 4 km. They indicate that the other parameters measured and used for the diagnosis of volcanic activity did not show significant changes during the evaluated period. Galeras volcano. This volcano is at a yellow level of activity, which indicates changes in behavior. In the place, the seismic occurrence and energy continued presenting low levels similar to those reported for the previous weeks. They affirm that the predominance of events associated with rock fracture within the volcanic system is maintained in the place. Fracture seismicity was located scattered around the volcanic edifice at distances of less than 10 km from the active cone with maximum depths of 10 km with respect to the top 4200 masl. Due to the activity of the Nevado del Ruiz volcano, they deliver food for the animals located in the area of ​​influence. The Galeras volcano has registered small white gas emissions with a low height, which indicates a predominance of water vapor from some of the existing fumarolic fields in the active cone. Cumbal Volcanic Complex. The latest SGC report on this volcano confirms that the seismic activity showed a slight increase in the occurrence and seismic energy released by the events compared to previous weeks, although it remains at low levels. According to the entity's surveillance, in this period of time, earthquakes associated with rock fractures in the volcanic system with a maximum magnitude of 17 predominated. This is one of the active volcanoes in the country monitored by the SGC Photo Courtesy Colombian Geological Service . As characteristics of the activity, they confirm that when the climatic conditions were favorable, it was possible to register columns of white gas of small height and variable dispersion according to the speed and direction of the winds in the volcanic zone. These emissions were observed mainly in the El Verde Humeros Fogones and La Rea edifice Cumbal fumarolic fields northeast of the CVC and also from the La Banda Rastrojos and Boca Vieja edifice Mundo Nuevo fumarolic fields southwest of the CVC. In Caldas they seek to improve the early warning system in the area of ​​influence of the Nevado del Ruiz volcano. Cerro Bravo volcano. In the last week there has also been information related to the Cerro Bravo volcano, which is located between Alto de Letras Manizales and Herveo Tolima, where there has been a gas outlet and a kind of white smoke whose origin has not been determined. On this matter, the SGC explained that this is one of the 25 active volcanoes monitored by the Colombian Geological Service. They have not determined the cause of the gas outlet from the Cerro Bravo sector. Photo Courtesy of the Colombian Geological Service. It is located on the Central Cordillera in the jurisdiction of the municipality of Herveo Tolima, 24 km from Manizales and 22 km from the Nevado del Ruiz volcano. It is estimated that the Cerro Bravo volcano was formed approximately 50,000 years ago, reaches 4,000 meters above sea level and is currently at a Green level of activity, which indicates that it is active but at rest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-actividad-del-volcan-nevado-del-ruiz-entregan-alimento-para-los-animales-ubicados-en-la-zona-de-influencia/202353/
-</t>
-  </si>
-  <si>
-    <t>Due to the activity of the Nevado del Ruiz volcano, they deliver food for the animals located in the area of ​​influence</t>
-  </si>
-  <si>
-    <t>The 45 days that the declaration of the level of orange activity of the Nevado del Ruiz volcano takes has the authorities of the municipalities located in the area of ​​influence to maintain the preparation before a possible eruption which can occur in the term of days or weeks. The process has included the evacuation of families, the updating of the censuses and the delivery of emergency kits. Added to this is the delivery of more than 45 bales of hay by the Animal Welfare Brigade of the Carabineros Police. The uniformed officers verify the health conditions of the animals and provide recommendations. Photo Courtesy of the Caldas Police. One of the delivery processes was carried out on the banks of the Chinchiná River where families have more than 105 animals including cows, horses, dogs, cats and chickens, which may be at risk from phenomena such as ash fall. The uniformed officers of the group of policemen and canine guides from the department of Caldas delivered the food for horses and cattle. In addition to this, they carried out a process of verification of the health parameters of the animals, such as health, nutrition, safe spaces and behavior. Video of the mysterious gases that emanate from the mountain on a road to Manizales near Nevado del Ruiz This is what is known. Among the recommendations that people living in the area of ​​influence of the Nevado del Ruiz volcano should take into account for the care of their animals are: If they come into direct contact with volcanic ash, it is advisable to clean their eyes, mouth and nose with plenty of water. It is also important to constantly change the water they drink and the food they eat. In the event that the animals suffer burns from the ash from the volcano, you can moisten cloths and apply them to the affected areas. In case the injuries are serious, it is advisable to take the animals to the vet. Taking pets for a walk should be avoided when there is a presence of volcanic ash in the environment. Keep the animals in a safe place, preferably inside the house. What worries the most in the area is the attention given to the bovines. Photo Courtesy of the Mayor's Office of Manizales. Faced with this issue, the Manizales Mayor's Office reminded the community that to protect pets it is necessary to frequently wash their water and food containers, which should not be left outdoors. Added to this is the need to wash their feet only with water without using chemical products or soap, dry brush their fur after each outing, reduce or prevent them from sniffing and licking the floor, and gently clean their eyes, nose, and ears with wet wipes. Given the ash fall from the Nevado del Ruiz volcano, it must be taken into account that it can affect pets with. Irritation of conjunctiva eyes and nasal passages. cough or sneeze Ocular and/or nasal secretions. Irritation of the skin and plantar pads. Digestive disorders due to accidental consumption of ash in food or water. In Caldas they seek to improve the early warning system in the area of ​​influence of the Nevado del Ruiz volcano. They recover animals in municipalities of Caldas. In the municipality of Palestina, thanks to the collaboration of the citizens, a blue and yellow macaw with the scientific name Ara ararauna and an infant three-toed sloth with the scientific name Choloepus hoffmanni were recovered by the authorities. Additionally, in the municipality of Neira, the authorities managed to seize three species of birds, including a blue-fronted parrot, a yellow-fronted parrot, and a mockingbird. The animals were delivered voluntarily by the people who had them Photo Courtesy Caldas Police. They indicated that the people who had these animals in their possession voluntarily allowed the uniformed officers to enter their places of residence in order to carry out the seizure procedure. The mammal and birds were left at the disposal of the Center for Attention Valuation and Rehabilitation of Wildlife of the Regional Autonomous Corporation of Caldas for veterinary medical evaluation and subsequent restitution of their wildlife.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-reportan-que-aumento-la-sismicidad-es-peligroso/202347/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano reported that increased seismicity is dangerous</t>
-  </si>
-  <si>
-    <t>The Colombian Geological Service continues with the constant monitoring of the activity of the Nevado del Ruiz volcano, which reports new eventualities in relation to what was registered in previous days. One of the novelties is presented with the increase in seismic activity associated with rock fracturing inside the volcanic edifice on May 14 and 15. According to the entity, there was a significant increase in the number of earthquakes and seismic energy released in comparison to May 13 and the previous week. The Colombian Geological Service analyzes the parameters of the volcano Photo Courtesy Colombian Geological Service. Additionally, according to the report delivered by the experts based on the records of the web cameras and the other equipment installed in the area of ​​the volcano, this seismicity was located mainly to the southwest of the Arenas crater, at a distance between 4 and 5 km from it with depths that oscillated between 2 and 4 km. The earthquakes were felt in the Lagunilla sector and the municipality of Murillo, areas that belong to the department of Tolima. The maximum magnitude was 28 Local Magnitude corresponding to two earthquakes registered on May 14 at 1,259 p.m. and 100 p.m., says the Geological Service report. . Video of the mysterious gases that emanate from the mountain on a road to Manizales near Nevado del Ruiz This is what is known. On the other hand, the seismic activity related to the movement of fluids inside the volcanic conduits presented an increase, especially in the seismic energy released. The entity highlights that some of the seismic signals were associated with pulsatile ash emissions confirmed through the web cameras used for volcanic monitoring. The ash emission recorded on the morning of this Monday, May 15 at 520 am, which generated the ash fall in the municipalities of Manizales and Villamaría that belong to the department of Caldas. From the SGC they reiterate that the activity of the Nevado del Ruiz volcano continues to be very unstable and that it is possible that the levels of seismic activity as well as those of degassing or ash output decrease or are oscillatory in the sense of increasing some days and decreasing others. Photo of the Nevado del Ruiz Volcano and its seismic activity Photo Colombian Geological Service. The experts confirm that in Manizales there were reports of the smell of sulfur and point out that it is possible that this is due to the dispersion of a high concentration of sulfur dioxide SO2 from the volcano, which together with some components of the ash could react with humidity. in the environment and smell and irritating sensation similar to sulfur compounds. For the peace of mind of the community, the SGC clarifies that the occurrence of this type of phenomenon does not indicate any relevant change in the activity of the volcano, it simply occurs occasionally when this type of factor combines SO2 concentration and high humidity and is contemplated within the parameters of a volcano in orange activity level. Manizales and the strange smell of sulfur that comes from the Nevado del Ruiz volcano In the city there has been a strong fall of ash. Félix Ricardo Giraldo Delgado, head of the Caldas Risk Management Unit, explained in response to this situation that with the heavy rains that have fallen in the city, there was a dispersion throughout the urban area of ​​these two towns and this was reflected in vehicles and in streets that obviously noticed this phenomenon of volcanic ash fall. Added to this is a strong smell of sulfur from early morning in almost the entire city of Manizales and this is due to the recurring emission of gases, vapors and ashes from inside the Nevado del Ruiz volcano. They seek to strengthen the sirens that are already in place in sectors such as Viejo Río Claro and El Destierro de Villamaría Photo Courtesy of the Caldas Government. They ask the community to remain calm, follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities and be attentive to the information provided by the Colombian Geological Service on the evolution of the state of the volcano.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/manizales-y-el-extrano-olor-a-azufre-que-proviene-del-volcan-nevado-del-ruiz-en-la-ciudad-se-ha-tenido-una-fuerte-caida-de-ceniza/202347/
-</t>
-  </si>
-  <si>
-    <t>Manizales and the strange smell of sulfur that comes from the Nevado del Ruiz volcano In the city there has been a strong fall of ash</t>
-  </si>
-  <si>
-    <t>The inhabitants of Manizales and those who are in it for some reason have had to face on this Monday, May 15, different natural phenomena that remind them that the Nevado del Ruiz volcano is active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-reportan-normalidad-en-manizales-luego-de-sismo-de-magnitud-50/202305/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano reports normality in Manizales after magnitude 50 earthquake</t>
-  </si>
-  <si>
-    <t>In the early hours of this Sunday, May 14, an earthquake was registered in Colombia. It was felt in different parts of the country. In principle, the Colombian Geological Service SGC said that it was of magnitude 43 and later specified that it was 50 with an epicenter in Acacias Meta and a depth less than 30 kilometers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-podria-haber-caida-de-ceniza-en-tres-municipios-del-tolima/202358/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano could have ash fall in three municipalities of Tolima</t>
-  </si>
-  <si>
-    <t>This May 13, the Colombian Geological Service SGC published a new extraordinary bulletin in which it gives details about the situation of the Nevado del Ruiz volcano. In the document, the entity warns that seismic activity continued to occur due to the constant movement of fluids within the volcanic conduits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-podria-hacer-erupcion-en-dias-o-semanas/202342/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano could erupt in days or weeks</t>
-  </si>
-  <si>
-    <t>On March 30, the Colombian Geological Service SGC was forced to set off alarms due to the unstable behavior of the Nevado del Ruiz volcano, given that it could lead to the largest eruption in the last decade. Since then, conditions have not changed and the risk remains of the emergency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/en-caldas-buscan-mejorar-el-sistema-de-alertas-tempranas-en-la-zona-de-influencia-del-volcan-nevado-del-ruiz/202356/
-</t>
-  </si>
-  <si>
-    <t>In Caldas they seek to improve the early warning system in the area of ​​influence of the Nevado del Ruiz volcano</t>
-  </si>
-  <si>
-    <t>The departments and municipalities that are in the area of ​​influence of the Nevado del Ruiz volcano are advancing in the preparation process for a possible emergency, taking into account the level of orange activity in which it is located.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/nevado-del-ruiz-que-son-las-cenizas-volcanicas-y-que-indican-del-estado-del-volcan/202328/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz, what are volcanic ashes and what do they indicate about the state of the volcano?</t>
-  </si>
-  <si>
-    <t>The activity in which the Nevado del Ruiz volcano is maintained shows some characteristics that show its instability with indicators such as the predominance of seismic activity related to the movement of fluids inside the volcanic conduits, an increase in the seismic energy released, important thermal anomalies in the crater floor and variations in sulfur dioxide degassing and water vapor outflow from the crater into the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/cucuta/articulo/municipios-en-riesgo-por-el-volcan-nevado-del-ruiz-ya-cuentan-con-emisoras-de-emergencia/202318/
-</t>
-  </si>
-  <si>
-    <t>Municipalities at risk from the Nevado del Ruiz volcano already have emergency stations</t>
-  </si>
-  <si>
-    <t>The inhabitants of the areas surrounding the Nevado del Ruiz volcano already have four new stations of Public Interest of Attention and Disaster Prevention that were authorized by the Ministry of Information Technologies and Communications of Colombia TIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-que-se-mantiene-la-alerta-naranja-en-el-nevado-del-ruiz/202307/
-</t>
-  </si>
-  <si>
-    <t>Why the orange alert is maintained in Nevado del Ruiz</t>
-  </si>
-  <si>
-    <t>The Colombian Geological Service SGC continues to monitor the Nevado del Ruiz volcano because its level of activity continues in orange since this situation was reported in early April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-recomiendan-continuar-con-las-medidas-de-prevencion-ante-el-aumento-de-sismos/202311/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano recommends continuing with prevention measures in the face of increased earthquakes</t>
-  </si>
-  <si>
-    <t>The Colombian Geological Service SGC continues to monitor the Nevado del Ruiz volcano due to the risk of eruption due to the fact that its level of activity continues in orange. All the indicators that the experts analyze confirm that the activity of the volcanic edifice continues to be very unstable but with the probability that it will rash over days or weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-por-que-no-hay-que-relajarse-y-que-tiene-que-pasar-para-que-baje-el-nivel-de-actividad/202354/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano why you shouldn't relax and what has to happen for the level of activity to drop</t>
-  </si>
-  <si>
-    <t>Although more than a month has passed since the level of activity of the Nevado del Ruiz volcano rose to orange, the probability that it will erupt more than it has in the last ten years is still latent, according to the Colombian Geological Service. SGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-gobernacion-de-caldas-adecua-vias-para-evacuar-en-caso-de-que-haya-erupcion/202321/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz Volcano Government of Caldas adapts routes to evacuate in case of an eruption</t>
-  </si>
-  <si>
-    <t>The Government of Caldas continues to work continuously and jointly through the Infrastructure Secretariat with the municipal authorities of Villamaría and Neira, as well as the National Army, the National Institute of Invías and the community that lives in the vicinity of the Nevado del Ruiz volcano with the objective of guaranteeing the inhabitants of these sectors evacuation roads in case of a possible eruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atento-esto-es-lo-que-debe-hacer-antes-durante-y-despues-de-la-erupcion-de-un-volcan/202345/
-</t>
-  </si>
-  <si>
-    <t>Attentive this is what you should do before during and after the eruption of a volcano</t>
-  </si>
-  <si>
-    <t>Since March 30, the Nevado del Ruiz volcano has been at level II activity, indicating a probable eruption in a matter of days or weeks. The alert situation led emergency agencies and authorities in the area of ​​influence to begin activating emergency plans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-se-esta-calentando-mas-hay-riesgos/202347/
-</t>
-  </si>
-  <si>
-    <t>The Nevado del Ruiz volcano is heating up more there are risks</t>
-  </si>
-  <si>
-    <t>The director of geohazards of the Colombian Geological Service SGC John Makario Londoño delivered a new report on the behavior of the Nevado del Ruiz volcano that has threatened to erupt for a month in terms of days or weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/medellin/articulo/volcan-nevado-del-ruiz-las-cenizas-son-nocivas-para-la-salud/202325/
-</t>
-  </si>
-  <si>
-    <t>Nevado del Ruiz volcano the ashes are harmful to health</t>
-  </si>
-  <si>
-    <t>The Nevado del Ruiz volcano remains on orange alert due to the probability of erupting within days or weeks Its unstable activity has manifested itself with anomalies in the bottom of the crater, an increase in earthquakes and continuous ash emission The Colombian Geological Service explained the scope and complications of the latter phenomenon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atentos-reducen-el-perimetro-de-riesgo-por-posible-erupcion-del-volcan-nevado-del-ruiz/202330/
-</t>
-  </si>
-  <si>
-    <t>Careful reduce the risk perimeter for possible eruption of the Nevado del Ruiz volcano</t>
-  </si>
-  <si>
-    <t>In Manizales, a new Unified Command Post was developed to analyze everything related to the Nevado del Ruiz volcano under the leadership of the new director of the National Disaster Risk Management Unit Olmedo López</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-sigue-inestable-asi-registran-las-autoridades-su-actividad/202344/
-</t>
-  </si>
-  <si>
-    <t>The Nevado del Ruiz volcano remains unstable, this is how the authorities record its activity</t>
-  </si>
-  <si>
-    <t>The Colombian Geological Service advances in monitoring 247 on the Nevado del Ruiz volcano, which is at orange or II activity level, which indicates a probable eruption in a term of days or weeks according to the declaration delivered since March 30.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/estudiantes-de-cinco-colegios-retomaran-clases-presenciales-luego-de-permanecer-en-casa-por-la-alerta-naranja-en-el-volcan-nevado-de-ruiz/202336/
-</t>
-  </si>
-  <si>
-    <t>Students from five schools will resume face-to-face classes after staying at home due to the orange alert at the Nevado de Ruiz Volcano</t>
-  </si>
-  <si>
-    <t>After the declaration of an orange alert due to the imminent risk of eruption of the Nevado del Ruiz volcano, at least 30 educational institutions located in the area of ​​influence decided to adopt the modality of virtual classes as a preventive measure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/no-paran-los-temblores-en-el-volcan-nevado-del-ruiz-este-es-el-nuevo-reporte-del-servicio-geologico-colombiano/202348/
-</t>
-  </si>
-  <si>
-    <t>The tremors in the Nevado del Ruiz volcano do not stop this is the new report of the Colombian Geological Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atencion-se-registra-temblor-en-la-zona-de-influencia-del-volcan-nevado-del-ruiz/202314/
-</t>
-  </si>
-  <si>
-    <t>Tremor is registered in the area of ​​influence of the Nevado del Ruiz volcano</t>
-  </si>
-  <si>
-    <t>The Colombian Geological Service confirmed the occurrence of an earthquake with an epicenter in one of the municipalities located in the area of ​​influence of the Nevado del Ruiz volcano.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/puede-desatarse-una-alerta-roja-en-el-volcan-nevado-del-ruiz-en-los-proximos-dias/202352/
-</t>
-  </si>
-  <si>
-    <t>A red alert may be unleashed in the Nevado del Ruiz Volcano in the coming days</t>
-  </si>
-  <si>
-    <t>There are many concerns that arise among the community in relation to the activity of the Nevado del Ruiz volcano, which has been at an orange level of activity since March 30, 2023, for which reason it has permanent monitoring by the Colombian Geological Service.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/vida/ciencia/nevado-del-ruiz-una-erupcion-podria-activar-a-otros-volcanes-762328
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz an eruption could activate other volcanoes The SGC explains</t>
+  </si>
+  <si>
+    <t>Currently, the Colombian Geological Service SGC has three volcanological observatories located in Manizales, Pasto and Popayán, from where specialists monitor the 21 known active volcanoes in the country, located mainly in the central zone. . We recommend Nevado del Ruiz Volcano, an ash column reaching 2 kilometers high. . From Manizales, in addition to monitoring the activity of the Nevado del Ruiz volcano these days, the behavior of neighboring volcanoes such as Cerro Bravo Cerro Machín or Nevado de Santa Isabel is also followed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-26-de-mayo-aumento-en-sismos-771893
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano its seismic activity continues to increase according to SGC</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service SGC continues to monitor the activity of the Nevado del Ruiz volcano, which today, May 26, showed an increase in its seismic energy compared to last Wednesday. We invite you to continue reading What produces smoke, gases and incandescence near the Cerro Bravo Minminas volcano details For the above, it is reiterated that the activity of the volcano continues to be very unstable in the sense of its increase and decrease in earthquakes on different days. . Regarding the seismicity related to the movement of fluids inside the volcanic conduits, we registered similar levels in the number of events and in the through the web cameras used for volcanic monitoring, the official document explained. Also, the Nevado del Ruiz Volcano increased seismic activity. says the last bulletin of the SGCIn this last bulletin, the SGC pointed out that the volcano remains on orange alert without excluding the possibility that in days or weeks it could erupt more than it has in the last 10 years. . Variations continue in the degassing of sulfur dioxide and the release of water vapor from the crater into the atmosphere. Due to atmospheric conditions, there have been no reports of thermal anomalies at the bottom of the Arenas crater from satellite monitoring platforms, he explains. the SGCA also Michelada made from ash from the Popocatépetl volcano went viral on networks what it containsIt should be noted that it is recommended to remain calm follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities almost 3 millionNevado del Ruiz volcano gas emission persists in the crater according to SGCMonserrate is a dormant volcano and the church is on top of a crater SGC clarifiesVANESSA PÉREZ. LATEST NEWS EDITORIAL You like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-aumento-actividad-sismica-boletin-del-sgc-del-25-de-mayo-771581
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz Volcano Increased seismic activity, according to the latest SGC bulletin</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service SGC reported that the activity registered inside the crater of the Nevado del Ruiz volcano today, May 24, increased compared to this Wednesday. They were located in the northeast and southwest sectors of the volcano at a maximum distance of 5 km from the Arenas crater and at depths that ranged between 3 and 6 km. . For this reason, the Colombian Geological Service reiterated that the activity of the volcano remains unstable. However, they emphasize that it is possible that the levels of seismic activity as well as the levels of degassing or ash output may decrease Popocatépetl 7 data from the volcano in Mexico, considered one of the most dangerous in the world To change the level and return to the Yellow level, a prudential time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity, aspects that the current activity of the volcano still does not show, says the official document. . Likewise, in the monitoring of this Thursday, it was reiterated that the volcano remains on orange alert, which indicates that there is a probability that in days or weeks it will erupt more than it has in the last 10 years. The SGC's call reiterates to the community stay informed and abide by the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities In addition, Nevado del Ruiz Volcano increases the number of earthquakes according to SGCREDACCIÓN ULTIMAS NOTICIAS. VANESSA PÉREZExperts propose a new hypothesis about the gases that come out of Cerro BravoMichelada made from ash from the Popocatépetl volcano went viral on networks what it containsNevado del Ruiz Volcano increased earthquakes in the northeastern north and south sectorsYou like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-aumenta-la-cantidad-de-sismos-segun-sgc-771277
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano increases the number of earthquakes according to SGC</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service SGC announced through a statement on May 24 that the seismic activity related to the movement of fluids increased compared to the records made on May 22. You may be interested in Nevado del Ruiz these are the villages excluded from the Immediate evacuation Seismic activity associated with rock fracturing inside the volcanic edifice was recorded, which showed an increase in the number of earthquakes and similar levels of seismic energy, the SGC said. . He also explained that the activity of the Nevado del Ruiz volcano continues to be very unstable, which is why the alert remains orange. The ICT Ministry also announces more than 50 new antennas for municipalities near Nevado del Ruiz. For this reason, the Colombian Geological Service reiterated that the levels of activity may seismic as well as the levels of degassing or output of ash decrease or are oscillating in the sense of increasing some days and decreasing others. . In the monitoring of this Wednesday, May 24, it was reiterated that there is a probability that in the coming days or weeks there will be a larger eruption than it has done in the last 10 years. In addition, the SGC mentioned that to return to the yellow alert level it is required a prudential time in which trends and patterns can be observed that allow deducing some decrease in seismic activity. . Regarding surface activity, the maximum height of the column of gases and/or ash was 1800 m measured from the top of the volcano and has shown a preferential direction of dispersion towards the northeast Variations continue in the degassing of sulfur dioxide and the output of water vapor from the crater into the atmosphere, the report noted. . Finally, the Colombian Geological System indicated that it recommends that the community remain calm, follow the instructions of the local authorities and stay informed. Also Smell of sulfur near the Nevado del Ruiz volcano, why it has been reported and what it meansNevado del Ruiz Risk Management excludes Risaralda of the risk area of ​​the volcanoNevado del Ruiz Volcano how are the conditions now that the risk area of ​​the Nevado del Ruiz Volcano is lower slight increase in seismic activity of the volcano LATEST NEWS EDITORIAL. VANESSA PÉREZYou like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/volcan-nevado-del-ruiz-actualizacion-23-de-mayo-770891
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano increase in earthquakes in the northeastern north and south sectors</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service SGC reported that from 9 am yesterday, May 22, and during the course of May 23, the seismic activity related to the movement of fluids inside the volcanic conduits presented an increase in the number of earthquakes and continued showing levels of seismic energy released similar to those of the previous day, May 21. The seismicity occurred in the northeastern north and south sectors of the volcano and in the Arenas crater at a maximum distance of 6 km from it and at depths ranging between 1 and 7 km . . Regarding surface activity, the maximum height of the column of gases and/or ash was 1,300 meters measured from the top of the volcano and it has presented a preferential direction of dispersion to the northeast, the statement added. . More news SGC clarifies if the gases that come out of Cerro Bravo are volcanic. . However, it is possible that the levels of seismic activity as well as the levels of degassing or ash output decrease or are oscillating, that is to say that they can increase on some days and decrease on others. . However, this does not imply that the volcano has returned to its normal levels of activity, so it is recommended not to get used to these oscillating changes in activity and to think that it is a normal activity of the volcano. . Meanwhile, they indicated that the activity of the Nevado del Ruiz volcano continues at an orange level. You like to be informed. Enjoy the best content without limits. Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-como-ha-afectado-la-economia-de-caldas-la-alerta-naranja-770533
+</t>
+  </si>
+  <si>
+    <t>The hope of tourism in Caldas to resist the crisis caused by the Nevado del Ruiz</t>
+  </si>
+  <si>
+    <t>Ten days ago, the UNGRD National Unit for Risk Management accepted Caldas' request to reduce the high-risk area from 15 to 10 kilometers from the activity of the Nevado del Ruiz volcano. With the determination, most businesses in the surrounding area reopened and Although the balance as of today is positive, it is still not at normal values. . We recommend you read It will be working in a call center for merchants in Caldas bankrupt due to the volcano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/nevado-del-ruiz-estas-son-las-veredas-excluidas-de-la-evacuacion-inmediata-770215
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz these are the sidewalks excluded from immediate evacuation</t>
+  </si>
+  <si>
+    <t>The director of the National Unit for Risk and Disaster Management UNGRD Olmedo López announced a change in the way the evacuation area around the Nevado del Ruiz volcano will be specified. . Initially, 15 kilometers had been defined in a complete radius where intense work was done on the evacuation, but today it changes to a model established by the Colombian Geological Service in 2015, López explained. . Also read Nevado del Ruiz Risk Management excludes Risaralda from the volcano's risk zoneThe entity explains that since a possible eruption of Nevado del Ruiz would generate various volcanic phenomena with different consequences, it was indicated that it is necessary to discriminate them based on their severity, speed and scope. . For this, the Volcanic Threat map of the Nevado del Ruiz Volcano prepared by the SGC in 2015 was taken into account, which identified an area where the following volcanic phenomena could coexist: pyroclastic density currents CDP mud flows lahars debris avalanches volcanic gases projectiles ballistic lava flows shock waves and pyroclastic falls ash and lapilli details the entity In this area the most severe and highly lethal phenomena would occur with the highest travel speeds that would reach tens of kilometers in a very short time, points out the Risk Management Unit. . And he adds This forces this new area to be adopted as the most relevant to define the response times and the immediate evacuation perimeter while the volcano is at the orange level of activity. . Continue reading Nevado del Ruiz Risk Management excludes Risaralda from the risk area of ​​the volcanoOn the other hand, due to the irregular shape of the area, this polygon allows excluding some areas from immediate evacuation, as is the case of the municipality of Santa Rosa de Cabal Risaralda . . On the other hand, in other places the area to be evacuated must be expanded, as is the case in the vicinity of the channels of the Gualí Azufrado Lagunilla and Recio rivers in the department of Tolima and the Claro river in the department of Caldas. . After the announcement of the polygon as a new prioritization area, the UNGRD excluded the following villages from the immediate evacuation process El Oso Murillo Tolima Potosí La Laguna Alta El Páramo Valles Romeral La Guayana Santo Domingo Papayal Hot springs Montaño El Pindo and Gallinazo Villamaría Caldas and San Ramón Páramo Santa Rosa Potreros Cortaderal Zone Santa Rita Yarumal and Las Brisas Risaralda Santa Rosa de Cabal. . ENVIRONMENTAL EDITOR The ICT Ministry announces more than 50 new antennas for municipalities near Nevado del Ruiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/tecnosfera/novedades-tecnologia/antenas-para-municipios-cercanos-al-nevado-del-ruiz-769791
+</t>
+  </si>
+  <si>
+    <t>MinTIC announces more than 50 new antennas for municipalities near Nevado del Ruiz</t>
+  </si>
+  <si>
+    <t>From the municipality of Villamaría Caldas, ICT Minister Mauricio Lizcano announced the installation of more than 50 new antennas to provide communication coverage to the inhabitants of municipalities surrounding the Nevado del Ruiz volcano. . Also read Apple prohibits its employees from using artificial intelligence models according to a report The measure corresponds to the strategy that MinTIC created with companies. mobile satellite and radio telecommunications Among these is Tigo Wom Claro among others. . It might interest you Professor uses ChatGPT to find out if his students do homework with IA Today we announce 50 connection points to connect the entire region through the antennas of the four mobile phone operators God willing, nothing ever happens but these communications are useful to citizens In addition, we will deliver antennas to relief agencies so that they can communicate in the event of a possible eruption, Minister Lizcano explained during his announcement. Artificial intelligence will create a completely new way of working. . This is how earthquake alerts work on your cell phone. . The first statements by Linda Yaccarino, the new director of TwitterYou like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-cerro-bravo-sgc-dice-que-gases-no-son-de-origen-volcanico-770223
+</t>
+  </si>
+  <si>
+    <t>SGC carried out studies on the gas that comes out of Cerro Bravo and ruled out volcanic origin</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service was able to determine that the gas and steam outlet from the Cerro Bravo volcano located on the road that connects Bogotá with Manizales does not have a volcanic origin. . On the one hand, during the inspections carried out, it was found that the methane gas that is coming out of the slope of this volcano has concentrations much higher than those it usually has in volcanic areas and even those it currently has in the Nevado del Ruiz volcano, the entity points out. Likewise, the comprehensive analysis and evaluation of the monitoring parameters of the Cerro Bravo volcano shows stability over time and no variations have been seen in recent days according to the SGC since September 1995, when it began to be monitored, it is at a green activity level. which indicates that it is an active volcano but at rest with very little activity. . Based on this, from the SGC we can infer that this anomaly is not related to the activity of the Cerro Bravo volcano due to the superficiality of the phenomenon that occurs in a specific area of ​​the volcano, the entity points out. For its part, Transportadora de Gas Internacional TGI also ruled out the possibility of a gas leak from the pipeline that passes through that sector The entities open the possibility that the origin of this phenomenon is related to the degradation of organic matter Nevado del Ruiz why it has been reported and what it means Monserrate is a dormant volcano and the church is on top of a crater SGC clarifies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/nevado-del-ruiz-gestion-del-riesgo-excluye-a-risaralda-de-la-zona-de-riesgo-del-volcan-770087
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz Risk Management excludes Risaralda from the risk zone of the volcano</t>
+  </si>
+  <si>
+    <t>The director of the National Unit for Risk and Disaster Management UNGRD Olmedo López announced at a press conference a change in the way the evacuation area around the Nevado del Ruiz volcano will be specified. . Initially, 15 kilometers had been defined in a complete radius where intense work was done on the evacuation, but today it changes to a model established by the Colombian Geological Service in 2015, López explained. . Also read The faces of the inhabitants of the mouth of the Nevado del Ruiz volcanoIn the words of the director, this means that the measurement method changes to a polygon established in 2015, measured at risk by the tributaries that come from the Central mountain range. In this sense, the department of Risaralda municipality of Santa Rosa de Cabal will be excluded from the immediate evacuation zone. . The entity explained that this change was generated to intensify the areas of greatest threat where volcanic phenomena such as pyroclastic density currents, mud flows, debris avalanches, volcanic gases, ballistic projectiles, among others, can coexist. . Efforts will be concentrated in the department of Tolima in five municipalities and 40 villages and in one municipality in the department of Caldas Villamaría added the director of the entity. . You may be interested in the Nevado del Ruiz Volcano, the government's plan to achieve the evacuation of civilians. . Although there is no municipal seat or populated center in the adopted area, there are some rural sectors of Caldas and Tolima where immediate evacuation is required, particularly in those areas closest to the Gualí Azufrado Lagunilla and Recio rivers. . In those places already defined between Caldas Risaralda and a sector of Tolima where ash and lapilli can fall and form accumulations of more than 10 centimeters, an immediate evacuation is not necessary, but it is important to adopt particular measures such as preparations for the response that are defined by each municipal authority and the recommendations issued by the different entities of the SNGRD detailed LópezENVIRONMENTAL EDITORIALYou like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/tecnosfera/novedades-tecnologia/claro-fortalece-su-senal-alrededor-del-volcan-nevado-del-ruiz-769709
+</t>
+  </si>
+  <si>
+    <t>Claro strengthens its signal around the Nevado del Ruíz volcano</t>
+  </si>
+  <si>
+    <t>The Claro telephone service company announced that it is carrying out reinforcement and coverage expansion work in areas surrounding the Nevado del Ruíz Volcano. The measure hopes to directly impact three municipalities in the department of Caldas. . Also read Artificial intelligence will create a completely new way of workingThis network expansion strategy will benefit the municipalities of Manizales Chinchiná and Palestina so that they can keep in touch with the authorities and their families at any time. . It might interest you The first statements by Linda Yaccarino, new director of TwitterEn Claro we are working with local authorities and the national government to guarantee the provision of a stable service in the department and in the surrounding areas of the Nevado del Ruíz Volcano We have developed a Plan of Emergency and Disaster that will address any situation that may affect the service and within the actions the expansion of coverage is being carried out that will be implemented in the coming weeks, indicated Diego Marín regional director of Claro Colombia. . Other news This is how earthquake alerts work on your cell phone. . The company reported that to date it has expanded coverage in 24 rural sectors of Caldas and 17 in Risaralda, in addition to the work carried out in 13 rural areas of Tolima. Filters that alter faces in social networks should be regulated. . Netflix reported how it has fared with cheap ad-supported subscriptions. . They will train 120 victims of the armed conflict for free in technologyYou like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-que-significa-el-olor-azufre-en-manizales-768621
+</t>
+  </si>
+  <si>
+    <t>Smell of sulfur near the Nevado del Ruiz volcano, why it has been reported and what it means</t>
+  </si>
+  <si>
+    <t>The Nevado del Ruiz volcano has registered oscillations in the number and energy of earthquakes as well as in the output of ash. In addition, after more than a month and a half with the level of activity in orange, the Colombian Geological Service SGC received reports of sulfur odor during on Mother's DayYou can read Nevado del Ruiz Volcano how the conditions are now that the risk area is lessInhabitants of Manizales said they perceived the strong smell on Sunday, May 14 and in previous days. In this regard, the entity explained the reason why it would be noting several kilometers from the volcanic complex It is worth remembering that not only is the output of ash expected from a volcano with this type of activity, but there is also sulfur dioxide emission For the SGC it indicates that the volcano system is not completely closed If it were closed, the gases inside would accumulate, making the probability of an eruption increase exponentially. of sulfur dioxide to which were added the components of the ash that together could react with the humidity in the environment and perceive an irritating smell and sensation similar to sulfur compounds. This does not mean that there is a relevant change in the activity of the volcano, as explained by the entity It is an aspect that is contemplated in active orange Simply the concentration of sulfur dioxide and high humidity allowed it on this occasion When it is harmful to health The SGC indicates only if there is a direct and prolonged exposure to such a smell of sulfur there would be an affectation However, in Manizales this was not the case because the concentrations of sulfur dioxide are decreasing as they are dispersed in the atmosphere. that in days or weeks there will be a larger eruption than it has done in the last 10 years, says the SGCThe change from orange to yellow level requires a reasonable time where trends and patterns can be observed that allow us to infer the possible decrease in activity which can extend to several weeks The call from the authorities is to stay informed, not let your guard down and follow the recommendations of the relief agencies Nevado del Ruiz Volcano what is the red dot that can be seen from space One month of the Nevado del Ruiz volcano in orange activity the shocking images Video this is how Colombians skied in the Nevado del Ruiz in the 50s Map if the Nevado del Ruiz volcano erupts these places would be at risk LATEST NEWS EDITORIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-hoy-video-de-supuestas-emisiones-de-vapor-en-montanas-768581
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano analyzes video of alleged vapor emissions in mountains</t>
+  </si>
+  <si>
+    <t>A strong smell of sulfur accompanied by intense ash fall are the signs of activity that the Nevado del Ruiz volcano has given this Monday morning. In addition, the authorities are evaluating a situation reported in a video that shows alleged vapors emanating from one of the mountains near the Nevado del Ruiz volcano. . We recommend you read SGC clarifies if the gases that come out of Cerro Bravo are volcanic The video would have been recorded by some people who were circulating on the road that leads from Manizales to Bogotá at the height of Cerro Bravo, an area near Ruiz. In the video it is seen that what would be supposed vapors emanate from the earth. The authorities have reported that they are going to the place to verify the situation. . It may interest you Nevado del Ruiz Volcano, the orange alert continues, they warn of ash fall in Tolima. We have a report of a video in the Cerro Bravo sector in which the emission of gases and vapors is evident. Autónoma Regional Corpocaldas sent a technical commission to make a measurement and try to identify the genesis of these gases, explained Félix Ricardo Giraldo, head of the Caldas Risk Management Unit. . The people of Manizale have also reported a strong sulfur smell since early in the morning, as well as ash in the streets, plants, windows and vehicles. All this could be perceived after a heavy downpour that occurred at dawn in the capital. . In addition, this is how the Nevado del Ruiz volcano looks from satellites in spaceIn this regard, Caldas Risk Management pointed out that these situations are normal due to the instability in which the volcano has been since its orange activity level was decreed in March. . The ash emission that occurred around 623 in the morning was dispersed by the winds and rain to Manizales and Villamaría and their urban areas, which was reflected in the vehicles and streets Regarding the smell of sulfur, monitoring is being carried out with the environmental stations to determine the levels that are in the atmosphere and determine if it is necessary to issue an alert, explained the head of the Unit. . Also read Nevado del Ruiz Volcano why the emission of ash is a worrying sign. . The authorities have also called for calm and not to spread photos or videos from unknown sources and to be attentive to official communications from the Colombian Geological Service LAURA USMA CARDONA. For the time. MANIZALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-hoy-emisiones-de-cenizas-y-sismicidad-14-de-mayo-2023-768349
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano continues seismicity and ash emissions</t>
+  </si>
+  <si>
+    <t>For several weeks the Nevado del Ruiz volcano has been on orange alert In view of the fact that its activity continues to be very unstable, the Colombian Geological Service SGC has been monitoring its trends and patterns day by day Read also Nevado del Ruiz Volcano presented a slight decrease compared to the earthquakes The last report made by the institution in charge of evaluating the risks of geological origin revealed that the seismic activity related to the movement of fluids increased slightly with respect to the previous day. Seismic activity associated with rock fracturing inside the building was recorded. volcanic which showed similar levels in the number of earthquakes and seismic energy compared to the previous day May 13 detailed the SGC Continue reading Monserrate is a sleeping volcano and the church is on a crater SGC clarifies The earthquakes occurred at an approximate distance 7 kilometers from the Arenas crater The depths were between 3 and 5 km. . The expulsion of ash has also been maintained, as have the variations in the degassing of sulfur dioxide and the output of water vapor from the crater. The bulletin reports that from May 11 to 14 at 659 a.m. the ash had a maximum height of 1000 mm and was dispersed to the northwest and northeast of the volcano Of interest Nevado del Ruiz Volcano slight increase in seismic activity of the volcano The indicators indicate that it is possible that the levels of seismic activity as well as the levels of degassing or output of ash decrease or are oscillating in the sense of increasing some days and decreasing others However, this does not imply that the volcano has returned to its normal levels of activity, affirms the SGC. . Hence, it is important to be aware of the institution's updates and follow the indications of both the local authorities and the Unit. National for Disaster Risk Management UNGRD John Makario Londoño technical director of geohazards of the Colombian Geological Service reported that the volcano continues in general terms in a state similar to what it has had in previous days. . The fracturing activity continues but at low levels Some sectors of the volcano to the east and west They are low-magnitude earthquakes Also the continuation of the outflow of ash the column does not reach more than a kilometer pointed out the expert Londoño called to be aware of the evolution of the volcano because its state is still very unstable and thermal anomalies still persist Reward offered for murder of transgender leader in El Carmen de BolívarDeath by a coriander man was murdered for opposing the theft of a bunchEscopolamine armed attacks and persecutions X-ray of the robbery of touristsVALERIA CASTRO VALENCIA. DIGITAL SCOPE WRITING. EL TIEMPOYou like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-condiciones-ahora-que-la-zona-de-alto-riesgo-fue-reducida-768452
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano, how are the conditions now that the risk area is less?</t>
+  </si>
+  <si>
+    <t>The National Disaster Risk Management Unit, UNGRD, reduced the high-risk area of ​​the Nevado del Ruiz volcano by five kilometers, which continues at an orange activity level due to its unstable behavior. Now the high-risk area is no longer 15 kilometers, but 10 kilometers. read Nevado del Ruiz Volcano continues seismicity and ash emissions. . Families who evacuated and live in areas between 10 and 15 kilometers will be able to return to their farms. The UNGRD decision is due to a request that the governor of Caldas Luis Carlos Velásquez asked the director of that entity Olmedo López who the last weekend he met in Manizales with local authorities. . The Governor explained that the objective of reducing the area of ​​influence of the volcano is to lessen the economic and social effects that the region has experienced since last March 30, when the volcano's activity went from yellow to orange. . Also read Huila home gas will reach rural areas of Gigante La Plata and Garzón. . Many schools, not all of them can return to normality, many families can reintegrate, many minors were outside the area of ​​influence, many hotels can return to offer their different services and, of course, many value chains that revolve around the Nevado del Ruiz explained Velasquez. . For the departmental ruler, the reduction of the area of ​​influence of the Nevado del Ruiz volcano is a return to normality since the inhabitants will be able to return to their daily activities. In total, eight villages in the department of Caldas are outside the threat zone. . The hope. Friars. The lagoon. hot springs High Lagoon. vulture. mountain. PotosíThey offer a reward for the murder of a transgender leader in El Carmen de BolívarDeath by a cilantro man was murdered for opposing the theft of a bunchFree two women who had been kidnapped in the insular area of ​​Cartagena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-aumento-la-sismicidad-dentro-del-volcan-766692
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano reports a slight increase in seismic activity in the volcano</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service reported in its most recent report on the activity of the Nevado del Ruiz volcano that the seismic activity related to the movement of fluids inside the volcano increased slightly compared to May 7, which had already increased compared to the previous day. . Also read Nevado del Ruiz in 8 years they have discovered 19 more volcanoes in Caldas lands The earthquakes were located in the Arenas crater and scattered around it at a maximum distance of 5 kilometers and at depths between 1 and 5 kilometers Regarding the activity On the surface, the maximum height of the column of gases and/or ash observed was 1000 meters measured from the top of the volcano, said the SGC. . In addition Key call on Nevado del Ruiz volcano why you don't have to get used to it In addition, the SGC assured that from the satellite monitoring platforms several important thermal anomalies were observed at the bottom of the crater On the other hand, variations in the degassing of sulfur dioxide and the escape of water vapor from the crater to the atmosphere. . More news from Nevado del Ruiz Volcano What is a thermal anomaly in a volcano? The activity of the Nevado del Ruiz volcano continues to be very unstable It is possible that the levels of seismic activity as well as the levels of degassing or ash output may decrease or be oscillating in the direction to increase some days and decrease others However, this does not imply that the volcano has returned to its normal levels of activity, they concluded from the entity DUVÁN ÁLVAREZ. Editor of NACIÓN EL TIEMPO You like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-boletin-del-servicio-geologico-9-de-mayo-766651
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano slight increase in seismic activity of the volcano</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service reported in its bulletin on May 9 that the seismic activity of the Nevado del Ruiz volcano has presented a slight increase in the number of earthquakes and in the seismic energy released. . You may be interested in Nevado del Ruiz Volcano Thermal anomalies reach higher values ​​what happens He also indicated that pulsatile ash emissions have been recorded through the cameras that monitor the area that have a maximum height of the gas and ash column of 1000 meters measured from the top of the volcano and was related to an ash emission and they affirm that it was registered on May 8 at 0727 pm. . The activity of the Nevado del Ruiz volcano continues to be very unstable and it is necessary to continue with the prevention measures. It is possible that the levels of seismic activity, as well as the levels of degassing or ash output, may decrease or oscillate in the sense of increasing for a few days and decrease others indicates the Geological Survey bulletin. . That is why the activity of the Nevado del Ruiz volcano continues at an orange activity level, that is to say that there is a probability that in days or weeks it will erupt more than it has in the last 10 years. In the same way, it is possible that it will continue. on orange alert for several weeks. . It may interest you Nevado del Ruiz is still unstable, earthquakes are reported inside the volcano The Geological Service clarified that the volcano has not reached its normal levels and preventive measures should continue to be taken, so they recommend not getting used to these changes and thinking that it is a normal activity of the volcano. . The entity invited Colombians to remain calm and follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities. It also suggested that citizens be attentive to the information provided by the Colombian Geological Service on the evolution of the state of the volcanoNevado del Ruiz Caldas asks to reduce the high-risk area to recover jobsNevado del Ruiz Volcano continues to increase seismic activity inside the volcanoNevado del Ruiz Volcano ash fall in Manizales Villamaría and NeiraYou like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-llaman-a-no-acostumbrarse-a-anomalias-por-que-766469
+</t>
+  </si>
+  <si>
+    <t>Key call on Nevado del Ruiz volcano why you don't have to get used to it</t>
+  </si>
+  <si>
+    <t>The eyes of the authorities and the inhabitants have been on the Nevado del Ruiz volcano, which has completed more than a month at the orange level of activity. Since then, there is the possibility of an eruption in a matter of days or weeksContinue reading Nevado del Volcano Ruiz Thermal anomalies reach higher values ​​what happensWith the passing of the weeks the reports of the Colombian Geological Service SGC account for the record of seismicity output of ash and sulfur and thermal anomalies detected by satellite platforms As several of these aspects tend to be recurrent in the volcano, the SGC insists on not normalizing them because the community and the authorities can get used to the fact that there are no variations for several days. This behavior has remained for several weeks in a very similar way. This does not mean that the volcano has returned to normal levels. On the contrary, the seismicity is still very high compared to what it was months ago, commented John Makario Londoño, technical director of geohazards of the entity. Irregular conditions that warranted declaring it at an orange level of activity The volcano is not normal It has a level of activity that is too high Over the days it gets used to ash coming out No It is important not to get used to those situations that are not normal, said the expert Even Londoño assured that sometimes the volcano has shown that when it calms down much after a high activity is when it has erupted That did clarify that it is not possible to predict its behavior nor estimate whether or not it will erupt Also read Nevado del Ruiz what are volcanic ash and why they are harmful Therefore he called on the community to follow the recommendations of the authorities such as preventive evacuation The behavior of the volcano is very unstable Therefore the probability continues that in days or weeks it will erupt more than what has done in the last 10 years says the SGCThe change from orange to yellow level requires a prudential time where trends and patterns can be observed that allow inferring the possible decrease in activity which can extend to several weeks A month of the Nevado del Volcán Ruiz in orange activity the shocking images Nevado del Ruiz Caldas asks to reduce high-risk area to recover jobs If there is an eruption of the Nevado del Ruiz volcano, tap water can be consumed Nevado del Ruiz Volcano Lightning and telephone failures are signs of an eruption LATEST NEWS EDITORIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-registra-anomalias-termicas-mayores-766350
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz Volcano Thermal anomalies reach higher values ​​what happens</t>
+  </si>
+  <si>
+    <t>The director of Geothreats of the Colombian Geological Service John Makario Londoño reported that the activity of the Nevado del Ruiz volcano on May 7 and today May 8 continues at the same levels as the previous days, however some thermal anomalies have been detected that have reached values ​​greater than those that have been detected in previous days. . It may interest you Key call on Nevado del Ruiz volcano why you don't have to get used to it Londoño also stated that the activity that has occurred is similar to those that occurred in 2015 with the displacement of the lava dome that occurred at the bottom of the crater No However, he clarified that this does not mean that the crater erupts due to the presence of these anomalies, but that it is another parameter that one expects in an orange level of activity. . Nevado del Ruiz may be interested in what volcanic ash is and why it is harmful. . The technical director indicates that for this reason it is important to continue with the permanent monitoring of the volcano and to remain attentive to the recommendations of the local and national risk management authorities and to the updates of the Colombian Geological Service. . Londoño warns that there is a lot of misinformation about the situation of Nevado del Ruiz that only intends to generate panic. For this reason it is important to be attentive to the information from official entities Laura Camila Ramos. EDITORIAL LATEST NEWS Key call on Nevado del Ruiz volcano why you don't have to get used to itNevado del Ruiz remains unstable earthquakes are reported inside the volcanoNevado del Ruiz Volcano ash fall in Manizales Villamaría and NeiraNevado del Ruiz Volcano continues to increase seismic activity inside the volcano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-piden-reducir-zona-de-alto-riesgo-en-caldas-766372
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz Caldas asks to reduce high-risk area to recover jobs</t>
+  </si>
+  <si>
+    <t>The new director of the National Disaster Risk Management Unit UNGRD Olmedo López Martínez visited Caldas in the last few hours. There he led a Unified Command Post in which the department made a forceful request to reduce the area considered to be at greatest risk in the vicinity of the Nevado del Ruiz volcano. . Also read Nevado del Ruiz Volcano Latest bulletin reports earthquakes due to fluid movementGiven its declaration of orange activity in which the area that has been closed since March 31 and from which a preventive evacuation of families was requested corresponds to 15 kilometers to the redonda del crater arenas The request is that it be reduced to 10 so that several commercial establishments can open their doors and not continue in total loss as up to now. Those five kilometers of difference are essential for the economy of the department. doing with the objective that the thermal hotels and other restaurants and tourist spaces can have better economic and agro-industrial performance as well as the families of the sector that depend on offering goods and services for tourism explained the governor of Caldas Luis Carlos Velásquez. . The president pointed out that this request would not change the eviction invitation for families in the area and reported that currently 20 families out of 40 registered have evacuated and 21 minors are in the homes of relatives. . In addition Nevado del Ruiz Volcano Thermal anomalies reach higher values ​​what happens The owners of the businesses in the area also assured that with the measure many economic possibilities would be recovered and that is what they want above credits or subsidies We really want them to let us work La Reducing the risk area would help almost 90 percent of the closed businesses to open and we could continue working, said Sergio Salazar López, general manager of the Termales del Ruiz Hotel. . According to what the authorities have stated, for this request to be viable, a technical concept is needed by the Colombian Geological Service, which assesses the risk taking into account what the fall of pyroclastic fires could eventually be like and the possible routes of lahars. . In addition to this, the department reiterated the request for 8000 million pesos in economic resources and supplies to comply with the preventive enlistment in the event of a possible eruption of the volcano. These include maintenance of evacuation routes, provision for relief agencies and hospitals, as well as relief financial for merchants among other topics. . More news Nevado del Ruiz Volcano continues to increase seismic activity inside the volcanoFor his part, the director of UNGRD Olmedo López Martínez promised to take the requests to the President of the Republic Gustavo Petro to speed up the processes, especially those related to yellow machinery with which They can enable the evacuation routes surrounding the volcanic massif. At the moment there are 20 kilometers of tertiary roads intervened. . We recommend reading Nevado del Ruiz in 8 years they have discovered 19 more volcanoes in Caldas. . The commitment to review and expedite the request made by the Government of Caldas for two new yellow machinery combos so that we can move forward and soon we can announce that in the surroundings of Nevado del Ruiz we have recovered 100 percent of the roads so that the communities they can get to evacuate quickly indicated López Martínez. . The director of the UNGR pointed out that they will continue to manage support kits for the affected families and announced that the next ones to arrive will include items for the care of companion animalsLAURA USMA CARDONA. For the time. MANIZALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-aumento-la-sismicidad-dentro-del-volcan-766343
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano continues to increase seismic activity inside the volcano</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service reported in its most recent report on the activity of the Nevado del Ruiz volcano that the seismic activity related to the movement of fluids within the volcano increased compared to May 6, which had already increased compared to the previous day. . Read also Nevado del Ruiz in 8 years they have discovered 19 more volcanoes in Caldas lands The earthquakes were located in the Arenas crater and scattered around it at a maximum distance of 6 km and at depths between 1 and 5 kilometers Regarding the activity On the surface, the maximum height of the column of gases and/or ash observed was 1800 meters measured from the top of the volcano, said the SGC. . In addition, Nevado del Ruiz Volcano The latest bulletin reports earthquakes due to fluid movement. In addition, the SGC assured that several important thermal anomalies were observed from the satellite monitoring platforms at the bottom of the crater. On the other hand, variations in sulfur dioxide degassing and the escape of water vapor from the crater to the atmosphere. . More news from Nevado del Ruiz Volcano What is a thermal anomaly in a volcano? The activity of the Nevado del Ruiz volcano continues to be very unstable It is possible that the levels of seismic activity as well as the levels of degassing or ash output may decrease or be oscillating in the direction to increase some days and decrease others However, this does not imply that the volcano has returned to its normal levels of activity, they concluded from the entity DUVÁN ÁLVAREZ. Editor of NACIÓN EL TIEMPO You like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/nevado-del-ruiz-que-son-las-cenizas-volcanicas-y-por-que-son-nocivas-766048
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz, what are volcanic ash and why are they harmful?</t>
+  </si>
+  <si>
+    <t>The activity of the Nevado del Ruiz volcano has already completed 38 days at the orange level and the Colombian Geological Service SGC warns that there is a probability that in days or weeks it will erupt more than it has in the last 10 years. . Read also UNGRD recommends immediate evacuation of the vicinity of the Nevado del Ruiz craterIn the most recent report delivered by the entity, it is indicated that the seismic activity associated with rock fracturing inside the volcanic building increased on May 6 compared to the day before . . This seismicity was located mainly in the Arenas crater and in the northeastern eastern and southeastern sectors of the volcano at a maximum distance of 2 km from it and with depths between 2 and 6 km, explains the SGC. . Some of these earthquakes, the entity indicates, were related to the activity of the bulge dome or mound of lava located at the bottom of the crater. . Regarding the emission of ash, the SGC reports that its expulsion also continues and its column mixed with gases reached 800 meters in height from the middle of the top of the volcano. . Read also Nevado del Ruiz Volcano why the emission of ash is a sign of concern It is about particles with a size less than 2 mm which can be rocks, glass or mineral crystals This composition can vary depending on the type of volcano and eruption says the SGC. . They originate because it is the consequence of processes inside a volcano. In an eruptive process, the pressure of the magma and its gases can fragment the rock inside the volcano into pieces. These fragments come out at high speed through the crater, adds the entity. SGC details that only volcanoes that are in eruptive processes or with unstable behavior emit ash. This is more common in explosive-type volcanoes and although not all of them are active, they do emit ash, it can occur in those with a yellow, orange and red level of activity. . . Regarding whether it is harmful to health, the Geological Service explains that large amounts of ash in the atmosphere can affect the quality of water and air and generate harmful effects on the respiratory system. This depends on the proximity to the volcano and the direction of its dispersion . . ENVIRONMENTAL STAFF You like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/comportamiento-del-volcan-nevado-del-ruiz-hoy-domingo-7-de-mayo-766073
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz remains unstable, earthquakes are reported inside the volcano</t>
+  </si>
+  <si>
+    <t>In a new report, the Colombian Geological Service SGC indicated that instability continues in the Nevado del Ruiz Volcano. . We recommend you read Nevado del Ruiz What are volcanic ash and why are they harmful? . A little over a month has passed since the emergency agencies declared the orange alert status, which means that the volcano may erupt in the coming days or weeks. However, the SGC affirmed that the earthquakes continue inside the crater of the volcano and that are related to the fracturing of rocks in the mountains. . Likewise, it was reported that the emission of ash and particulate matter continued, which could reach the municipalities of Murillo in Tolima and Manizales in Caldas. . It might interest you Seismic activity continues in the crater of the Nevado del Ruíz volcano. . Cameras and technical equipment installed around the Nevado monitor its activity and send periodic reports to the analysis centers that closely follow the behavior of the volcano. . JUAN PABLO CONTRERAS RIVERS. EDITORIAL LATEST NEWSNevado del Ruiz volcano ash fall in Manizales Villamaría and NeiraNevado del Ruiz volcano why ash emission is a worrying signNevado del Ruiz volcano what is the red dot seen from spaceYou like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/asi-se-comporta-el-volcan-nevado-del-ruiz-hoy-6-de-mayo-765922
+</t>
+  </si>
+  <si>
+    <t>Seismic activity continues in the crater of the Nevado del Ruíz volcano</t>
+  </si>
+  <si>
+    <t>For more than a month the Nevado del Ruiz volcano has presented an instability that has forced the Colombian authorities to decree a state of orange alert before the possible eruption of the geological fault. . We recommend that you read How a volcanic eruption would affect the climate and other facts about volcanoes. . Communities surrounding the vicinity of the mountain have already been evacuated for prevention purposes and the emergency services in Tolima Caldas and Risaralda are ready to deal with an eventual emergency. According to the latest report delivered by the Colombian Geological Service SGC, seismic activity has predominated inside the volcano and movement of fluids has been recorded in the conduits of the mountain. . Likewise, the pulsatile emissions of ash and the degassing of sulfur dioxide continue. . You might be interested in Nevado del Ruiz Volcano ash fall in Manizales Villamaría and Neira. . All these indicators ratify what the SGC has reiterated, the activity of the Nevado del Ruiz volcano continues to be very unstable. It is possible that the levels of seismic activity, as well as the levels of degassing or ash output, may decrease or be oscillating in the sense of increasing by a few days and decrease others is read in the last report delivered by the SGC. . From that entity they also reiterate the need to evacuate the areas surrounding the mountain since being in orange level means the possibility of an eruption greater than those that have occurred in the last 10 years. . JUAN PABLO CONTRERAS RIVERS. EDITORIAL LATEST NEWS Nevado del Ruiz Volcano why ash emission is a worrying sign Two tremors reported near the Nevado del Ruiz volcano this was its magnitude Nevado del Ruiz Volcano what is a thermal anomaly in a volcano Do you like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-boletin-extraordinario-5-de-mayo-765679
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano ash fall in Manizales Villamaría and Neira</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service SGC reported in its most recent bulletin that on the morning of May 5 the volcanic activity of Nevado del Ruiz has increased compared to previous days. . It may interest you They report two tremors near the Nevado del Ruiz volcano, this was its magnitude The seismicity was located mainly in the eastern-northeastern sector of the volcano at distances between 2 and 5 km from the Arenas crater and in the crater itself and to a lesser extent there were earthquakes in the southeastern sector The depth of all the registered earthquakes oscillated between 1 and 5 km, assured the SGC through a statement. . They also referred to the earthquake that occurred in the morning that had a magnitude of 22 and was located approximately 4 km to the east-northeast of the crater. This earthquake was reported in the sector of La Cabaña, municipality of Casabianca in the department of Tolima. . They also indicated that ash fall occurred in the municipalities of Neira and Manizales in the department of Caldas. In the same way, the Geological Service received notification of ash fall in the municipality of Villamaría this morning. . The seismic activity related to the movement of fluids inside the volcanic conduits continues to predominate in the Ayer 4 de Mayo volcano and so far today this seismicity has presented a similar behavior in terms of the number of earthquakes and seismic energy released. compared to the previous day, May 3. Some of the seismic signals associated with this type of seismicity have been related to pulsatile ash emissions confirmed through the web cameras used for volcanic monitoring, the SGC stated. . You may be interested in Nevado del Ruiz Volcano, why the emission of ash is a worrying sign The message from the Geological Survey continues to be the same as it warned a month ago that the level of activity of the Nevado del Ruiz volcano will remain orange for several weeks. . Keep in mind the orange level indicates that there is a probability that in days or weeks it will erupt more than it has in the last 10 years. . It is possible that the levels of seismic activity as well as the levels of degassing or output of ash decrease or are oscillating in the sense of increasing on some days and decreasing on others. However, this does not imply that the volcano has returned to its normal levels of activity for what that it is recommended not to get used to these oscillating changes in activity and to think that it is a normal activity of the volcano, the statement also says. . The entity invites Colombians to remain calm, follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities. Similarly, it suggests that citizens be attentive to the information provided by the Colombian Geological Service on the evolution from the state of the volcanoLaura Camila Ramos. EDITORIAL LATEST NEWS Nevado del Ruiz Volcano today May 3 slight increase in seismic energyNevado del Ruiz Volcano what is the red dot seen from spaceGovernment asks to evacuate but there is nowhere to go Nevado del Ruiz residentsYou like to be informed Enjoy the best unlimited content Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/volcan-nevado-del-ruiz-por-que-emision-de-ceniza-es-signo-que-preocupa-765235
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano, why the emission of ash is a worrying sign</t>
+  </si>
+  <si>
+    <t>Although the ash column emitted by the Nevado del Ruiz volcano has not grown in recent weeks, scientists from the Colombian Geological Service SGC affirm that since mid-2021 a greater number of emissions have been observed with heights greater than 2000 meters measured from the top of the volcano . In fact, some columns have passed 3000 meters, such as those registered on April 12, 2022, May 10, 2022, August 18, 2022, and May 2, 2023. . Also read Nevado del Ruiz, this is how the activity of the volcano is seen from space Starting from the fact that the column heights registered for the volcano in recent days are within the range of its recent historical values, a value like that of May 2, 2023 3000 meters does not mean that it is increasing in detail from SGC. . To evaluate its increase, the experts explain, the data should be studied more frequently over time and this parameter would also have to be analyzed together with others to find out what it means within the context of the volcano's activity at that time. Meanwhile, the SGC details that a An increase in the number of ash emissions and an increase in column heights could indicate greater instability of the volcanic system, the proximity of a magmatic body to the surface, the contribution of new magmatic material, the interaction between the hydrothermal and magmatic systems, among other phenomena. . However, this parameter is fully evaluated with others, for example, with seismicity, deformation, the type and quantity of volcanic gases to determine its cause and depending on this, it becomes important in determining a change in the level of activity, say the SGC scientists. They report two tremors near the Nevado del Ruiz volcano, this was its magnitude. They also affirm that the columns of gas and steam volcanic plumes are an expression on the surface of processes related to volcanic activity, however the height they reach does not depend only on the volcanic activity but also of the weather conditions at the time of issuance. Therefore, when assessing this parameter, weather variables must be taken into account. . In general, magma contains gases when these escape from the magma, high temperatures are emitted and rise in the form of a column until they reach the surface. These columns of hot gas are injected into the atmosphere and mix with the environment, rising until the temperature reaches the surface. of the column is balanced with the atmospheric temperature, there the ascent stops and the column is available to the meteorological conditions, the direction and speed of the prevailing wind in the area, indicate the experts. . Also read Nevado del Ruiz We feel the volcano roar but we are not afraid. . From this moment the explanation continues, the winds control the volcanic plume and the transport of gases, water vapor, ashes, aerosols occurs through the phenomenon of advection, horizontal transport of a fluid. . Depending on the characteristics of the volcanic plume and the strength and speed of the wind, this can disperse the column hundreds of meters and even kilometers from its source of emission. The vertical rise and subsequent dispersion of the columns is determined by variables specific to the volcano, such as temperature of the gas the exit velocity the composition of the column whether or not it has particulate matter the size of the particles and by atmospheric variables such as atmospheric temperature wind speed pressure humidity to name a few The columns of gases and steam have various shapes They range from small jets over the top to robust columns that are injected several kilometers above the top of the volcano and are characteristic of active volcanoes, they point out. . Continue reading Nevado del Ruiz what the noises mean in the northern part of the volcano. . CAMILO PEÑA CASTAÑEDA. ASSISTANT LIFE TODAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/temblor-hoy-en-colombia-se-sintio-cerca-al-volcan-nevado-del-ruiz-765423
+</t>
+  </si>
+  <si>
+    <t>Two tremors are reported near the Nevado del Ruiz volcano, this was its magnitude</t>
+  </si>
+  <si>
+    <t>Two new earthquakes were registered on May 4 According to the Colombian Geological Service, the movements occurred in the vicinity of the Nevado del Ruiz volcano. Also read Nevado del Ruiz Volcano, what is the red dot that can be seen from space? epicenter was 14 kilometers from the municipality of Murillo Tolima The depth this time was 5 kilometers This tremor was reported directly in the area of ​​influence of the volcano that has completed more than a month at an orange level of activityKeep reading Nevado del Ruiz Volcano why the ash emission It is a worrying sign The second earthquake occurred on Thursday morning around 1113 am in Armero Tolima, several kilometers away from the volcanic complex, yes, this area is not in the area of ​​influence The magnitude was 26 and the epicenter was nine kilometers from the municipality of Tolima The depth was less than 30 kilometers At the moment the authorities do not report damage or victimsDo not stop reading One month of the Nevado del Ruiz volcano in orange activity the shocking imagesGoogle uses the ShakeAlert system, a network of 1675 seismic sensors to detect tremors The application analyzes sensor data to determine the location and magnitude of the earthquake. . The Android Earthquake Alert System is a free service that detects earthquakes around the world and can alert Android users before the shaking starts, describes the company's website. . The option operates for free and its main objective is to support the authorities and people to prevent fatalities in these natural events. This is the step by step to activate earthquake notifications according to Google support. . 1 Open the phone settings. . 2 Touch Security and emergency and then Earthquake alerts. . If you do not find Security and emergency, press Location and then Advanced, then select Earthquake alerts Map if Nevado del Ruiz volcano erupts these places would be at risk An earthquake could occur if there is an eruption of Nevado del Ruiz SGC clarifies If there is an eruption of Nevado del Ruiz volcano tap water can be consumed Nevado del Ruiz Volcano is emitting sulfur dioxide what does this mean LATEST NEWS EDITORIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-volcan-hoy-3-de-mayo-aumento-de-sismos-y-de-fluidos-764828
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano today May 3 slight increase in seismic energy</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service SGC delivered the activity bulletin in the Nevado del Ruiz volcano The predominance of seismic activity related to the movement of fluids inside the volcanic conduits continues and a slight increase in seismic energy compared to the previous day May 1 . . Continue reading Nevado del Ruiz Volcano what is the red dot seen from space? The statement also mentions that seismic signals have been associated with pulsatile ash emissions that can be observed through web cameras. used for volcanic monitoring. . On Tuesday, May 2, seismic activity associated with rock fracturing inside the volcano showed a decrease in the number of registered earthquakes and in the seismic energy released compared to the previous day. . In addition, the Government asks to evacuate but there is nowhere to go residents of Nevado del Ruiz The Colombian Geological Service pointed out that the levels of seismic activity as well as the levels of degassing or output may be higher or lower compared to other days and call for caution . . This does not imply that the volcano has returned to its normal levels of activity, so it is recommended not to get used to these oscillating changes in activity and to think that it is a normal activity of the volcanoVideo this is how Colombians skied in Nevado del Ruiz in the 50sOne month of the Nevado del Ruiz volcano in orange activity the shocking images What are lahars This is what the SGC explains about these phenomena Pamela Avendaño. LATEST NEWS EDITORYou like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-que-es-el-punto-rojo-que-se-vio-desde-el-espacio-764652
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano what is the red dot seen from space</t>
+  </si>
+  <si>
+    <t>The Nevado del Ruiz volcano has completed its orange activity level for more than a month, which means that there is a probability that in days or weeks it will erupt more than it has in the last decade. In the midst of monitoring, the Geological Service Colombiano detected a light or red dot In addition, one month of the Nevado del Ruiz volcano in orange activity, the shocking images The entity follows minute by minute the behavior of the volcanic complex thanks to numerous technological equipment For example, they have cameras in different places around the volcano to observe it in time real Outside the Earth they go to the satellitesThe Sentinel 2 satellite of the European Space Agency captured the Nevado del Ruiz volcano on April 23 The image shows the cloudiness and in the middle of it a red dotAccording to the SGC that point is one of the anomalies thermal anomalies that currently exist at the bottom of the Arenas crater and that evidence the flow of heat coming from the interior of the volcanoA thermal anomaly is a temperature variation on the surface Even Luis Fernando Velasco, former director in charge of the National Unit for Disaster Risk Management had stated that temperatures could reach 700 C Keep reading Government asks to evacuate but there is nowhere to go residents of Nevado del Ruiz Along with other indicators, thermal anomalies are a crucial parameter of volcano monitoring because they show the increase in volcanic activity and could be precursors of an eruption pointed out the SGCPreviously the authorities recorded a strange light that surprised the inhabitants of this areaWe recommend a video of how Colombians skied in the Nevado del Ruiz in the 50sAsh emissions are common in the Nevado del Ruiz volcano that is close for 10 years making minor eruptions Sometimes they emit light due to the high temperature with which the particulate material and gases come out of the volcano, stated the SGC A month of Nevado del Ruiz volcano in orange activity the shocking images Map if Nevado del Ruiz volcano ago eruption these places would be at risk Nevado del Ruiz Volcano is emitting sulfur dioxide what does this mean LATEST NEWS EDITORIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-alerta-y-evacuacion-preventiva-de-familias-764559
+</t>
+  </si>
+  <si>
+    <t>Government asks to evacuate but there is nowhere to go residents of Nevado del Ruiz</t>
+  </si>
+  <si>
+    <t>The concern is notorious in the families of 19 villages of Tolima that live less than 15 kilometers from the Arenas crater of the Nevado del Ruiz Volcano and it is not for less since the previous Saturday the National Unit for Disaster Risk Management UNGRD requested to the immediate evacuation of these high risk areas due to a possible eruption. These high risk areas are in the municipalities of Murillo Villahermosa Herveo and Casabianca in northern Tolima where the Lagunilla and Azufrado rivers descend. . One of the most concerned peasants is Enrique García, president of the Community Action Board of La Cabaña, a village 2 kilometers from the volcano's crater where most of its inhabitants want to abide by the evacuation order but have nowhere to go with their children and animals. . The government asks us to get off the sidewalks but in unison here we wonder where we are going if we have nowhere to go, said the community leader who manages a farm with more than 100 cattle You may be interested in The Colombian who lost his hands in Iraq and today prepare empanadas and suckling pig. . Some 15 families live in the village of La Cabaña who have lived with the volcano for years and many of them repeat the same thing on a daily basis and we are used to living with the volcano. . Enrique García believes that the ideal is to evacuate to the urban area of ​​Murillo, which is about 18 kilometers away, but he is concerned about housing and livelihood issues for his family. . In Murillo, house rents are between 400 and 500,000 pesos a month, which must be paid in advance. . Of 13 families in their village, only 4 go down at night to sleep with their children in the urban area in the homes of relatives and friends. The remaining families remain on their farms in the midst of danger. . The families that do not go down to the urban area is because they have nowhere to spend the night and they are also afraid that thieves will vacate their farms and even take the cattle, García said. . In the areas surrounding the volcano, many do not believe in the promises of rent subsidies made by the government and affirm that they are promises that in the end end up turned into lies. . If all the peasants in the risk zone went down to the urban areas, we would remain idly by, no one would give us a job since we only know how to raise cattle and plant potatoes, assured the president of the Communal Board of the La Cabaña village. In addition, Martín Contreras, the man who fought against a shark and lived to tell the tale. . Edward Ariza is also part of the hundreds of peasants who live with the Nevado del Ruiz Volcano and he points out that their situation is critical because they lack the resources to live in an urban area. . His family is made up of 7 people since he also sees his parents whom he supports and cares for on that cold mountain at more than 5000 meters high. . When we manage to sleep in the urban area, which is from time to time, we do it snuggled up in friends' houses, but it is difficult because there are not beds for so many people and we end up bothering those who help us very willingly with the lodging, assured Ariza. He killed the painful crime of 2 children and their police father in Bogotá. . The truth is that families do not have enough money to pay rent or buy food and to make matters worse this year inflation raised the prices of food, transportation and everything that is needed to live. . Alberto Ávila, a councilor for the municipality of Villahermosa, which is about 20 kilometers in a straight line from the volcano, points out that the national government must offer guarantees to families who leave their villages. . It is very easy to request evacuation but in practice it is a complicated process because where are 1000 people from Tolima who live near the volcano going, he said. . The councilor affirmed that up to now the government has not provided sufficient guarantees to families to leave high-risk areas. . He also pointed out that the markets that are sometimes delivered by the mayors are consumed by families in 3 or 4 days and then what IBAGUÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-hoy-2-de-mayo-en-vivo-alerta-naranja-y-evacuaciones-764390
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano LIVE shows pulsatile ash emissions</t>
+  </si>
+  <si>
+    <t>The earthquakes, thermal anomalies and the outflow of a column of ash from the Nevado del Ruiz volcano are some of the points that make the Colombian Geological Service SGC maintain the level of activity in orange after a month of decree that means that there is a probability whether or not there is an eruption. . Continue reading A month of the Nevado del Ruiz volcano in orange activity the shocking imagesYou have to be aware of the volcano There is a magma that is pressing below and in the surroundings of the volcano there can be seismicity This is typical of a volcano, said John Makario Londoño, technical director of geothreats of the SGCA In addition to the Nevado del Ruiz Volcano, what is the red dot that can be seen from space Follow here the minute by minute of this May 2 You like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-revelan-videos-de-colombianos-esquiando-en-los-anos-50-764436
+</t>
+  </si>
+  <si>
+    <t>Video this is how Colombians skied in Nevado del Ruiz in the 50s</t>
+  </si>
+  <si>
+    <t>In the fifties it was possible to ski in the Andes Mountains due to the extensive layer of ice that covered it. In the midst of the orange level of activity, Señal Memoria dusted off a video recorded in 1958 showing several people skiing in the Nevado del Ruiz. . At that time, the volcano had a glacial area of ​​475 km² according to the Institute of Hydrology, Meteorology and Environmental Studies. . Continue reading Nevado del Ruiz Volcano LIVE pulsating ash emissions are presentedAccording to Señal Memoria In the pre-Hispanic period, the Quimbaya indigenous people called the mountain Cumanday, which means beautiful white. As indicated by the billboards found in Ruiz, this place was special for making payments by indigenous communities. . But this video fragment shows only a part of what Nevado del Ruiz was, since in 1996 it was the place chosen to portray the contestants of the International Coffee Reign. . . In addition One month of the Nevado del Ruiz volcano in orange activity the shocking imagesSince last March 30, an orange level of activity was decreed in the Nevado del Ruiz volcano, this means that there is a probability that in days or weeks the Nevado del Ruiz volcano will make a eruption greater than those that have occurred in the last decade according to the Colombian Geological Service. . In the last bulletin of the SGC it was specified that the movements of fluids inside the volcanic conduits continue and that some seismic signals have been associated with pulsatile emissions of ashNevado del Ruiz Volcano Army activates a station to alert the communityBe careful only 1 of the families de Caldas in a high-risk area has evacuatedNevado del Ruiz more than 50,000 students would be affected by a possible eruptionPamela Avendaño. LATEST NEWS EDITORYou like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-que-son-los-lahares-y-que-los-causa-sgc-responde-763798
+</t>
+  </si>
+  <si>
+    <t>What are lahars This is what the SGC explains about these phenomena</t>
+  </si>
+  <si>
+    <t>Last Thursday, Ideam issued an orange alert in municipalities near the Nevado del Ruiz volcano and warned about the creation of lahars. They are usually relatively small and their discharge and volume depend on the intensity of the rain generated, the Colombian Geological Service SGC clarified. . Regarding this, the Colombian Geological Service explained what these sediment phenomena are about. . Continue reading Nevado del Ruiz Volcano LIVE earthquakes in the interior increase one near the craterThe lahars or mud flows commonly known as avalanches to which we have referred from our entity to describe one of the volcanic phenomena that could occur if the Nevado del Ruiz volcano makes a large-scale eruption technically they are called primary lahars, the statement says. . As explained by the SGC, this phenomenon is generated by the rapid melting of the snow from the glaciers that cover the volcano and only occurs when a volcano erupts. As they advance through the rivers that originate in the volcano, they can increase their volume and become very destructive destroying everything in its path. . However, it is clarified that this is not a phenomenon that can occur in the orange alert that has been in place since March 30. . In addition, if there is an eruption of the Nevado del Ruiz volcano, tap water can be consumed. This is the phenomenon to which the Ideam refers and in which an orange and yellow alert is announced in some areas of influence of Nevado del Ruiz. In this regard, the SGC clarifies. . Secondary lahars occur when loose unconsolidated volcanic material deposited in certain places by previous eruptions are usually relatively small and their discharge and volume depend on the intensity of the rain that generates them. This lahar phenomenon will only occur if the volcano erupts with great force. magnitude It should be noted that it remains at the orange level of activity and that it is not predictableNevado del Ruiz an eruption could activate other volcanoes The SGC explainsNevado del Ruiz Volcano Lightning and telephone failures are signs of an eruptionAn earthquake could occur if there is an eruption of Nevado del Ruiz SGC clarifiesYou like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/como-va-el-volcan-nevado-del-ruiz-hoy-en-vivo-reportes-sgc-28-abril-2023-763553
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano LIVE this is how it evolves there is permanent monitoring</t>
+  </si>
+  <si>
+    <t>The earthquakes, the thermal anomalies and the outflow of a column of ash from the Nevado del Ruiz volcano are some of the points that make the Colombian Geological Service SGC maintain the level of activity in orange for about a month. This means that there is a probability or not that there is an eruption In addition Nevado del Ruiz Volcano Ideam issues alerts for the risk of lahar formation You have to be aware of the volcano There is a magma that is below pressing and in the surroundings of the volcano there can be seismicity That is typical of a volcano, expressed John Makario Londoño technical director of geothreats of the SGC Of your interest Nevado del Ruiz Volcano What phenomena could occur if it erupts Below follow the minute by minute of this April 28, 2023 LATEST NEWS EDITORIAL You like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-hoy-en-vivo-ultimas-noticias-alerta-naranja-763182
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano LIVE earthquakes inside increase one near crater</t>
+  </si>
+  <si>
+    <t>Nearly one month old, the level of orange activity in the Nevado del Ruiz volcano, which means the probability of an eruption greater than that of the last ten years, the energy of the earthquakes in recent days has increased as well as the length of the column of ash that residents of nearby areas can observeRead also Nevado del Ruiz Volcano What phenomena could occur if it eruptsThe volcano will not calm down from one day to the next Activity fluctuates and can decrease or increase at times We cannot let our guard down, he said John Makario Londoño technical director of geohazards of the Colombian Geological Service Follow the minute by minute of this April 27, 2023 LATEST NEWS EDITORIAL You like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-municipios-en-alerta-naranja-por-lahares-763259
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz Ideam volcano issues alerts for risk of lahar formation</t>
+  </si>
+  <si>
+    <t>Since the level of activity in the Nevado del Ruiz volcano was declared orange on March 30, the authorities have deployed actions to evacuate communities from the surrounding areas that could be affected in the event of a possible eruption. In this sense, the Institute of Hydrology Meteorology and Environmental Studies Ideam issued an orange and yellow alert for different municipalities in the area of ​​influence due to risks of lahar formation In addition, the Nevado del Ruiz Volcano, the geological fault through which the magma moves Secondary lahars are considered a phenomenon It is volcanic material deposited in certain places due to previous eruptions that can be removed by rain They are usually relatively small and their discharge and volume depend on the intensity of the rain that is generated clarifies the SGCKeep reading Nevado del Ruiz Volcano is emitting sulfur dioxide what does it meanIn Tolima attention is recommended to the rural areas of Villahermosa Casabianca Líbano Lérida Falan Armero Guayabal Murillo Venadillo and Ambalema due to the formation of lahars that could descend through the valleys of the Lagunilla Sabandija and Recio rivers We recommend there is a crack in the Nevado del Ruiz volcano This is the real reason This phenomenon could likewise go down the Gualí river basin So the rural areas of the municipalities of Herveo Casabianca Fresno Palocabildo. Falan Mariquita and Honda Tolima and the municipal seats of Mariquita and Honda Tolima are on orange alert In the valleys of the Nereidas Alfombrales streams, the Molinos Claro and Chinchiná rivers could also have an impact on lahars In Caldas Manizales Villamaría Chinchiná Palestina Neira and Anserma are on orange alert according to The IdeamAlthough in the Ideam bulletin it is in the forecast of a landslide threat in the area of ​​influence of the Nevado del Ruiz volcano, the alert in the municipality of Quindío is issued due to the rains, not due to the activity of the volcanic complexIn Salento we are in low threat due to the Nevado Ideam has a red alert for landslides, the rains have affected the roads and the municipality has dealt with them in a timely manner, said Juan Pablo Granados, risk management coordinator for Salento. If there is an eruption of the Nevado del Ruiz volcano, tap water can be consumed In the middle emergency due to Nevado del Ruiz the UNGRD would be left without a director Luis Alfredo Garavito has eye cancer this is the revealing photo in jail Gustavo Bolívar confirms his intention to be a candidate for the mayoralty of Bogotá LATEST NEWS EDITORIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/vida/medio-ambiente/volcan-nevado-del-ruiz-ungrd-quedaria-sin-director-por-salida-de-ministros-763081
+</t>
+  </si>
+  <si>
+    <t>In the midst of an emergency due to Nevado del Ruiz, the UNGRD would be left without a director</t>
+  </si>
+  <si>
+    <t>The political upheaval that generated the changes in seven ministries by President Gustavo Petro left a victim of whom there is no certainty about his future the National Unit for Risk and Disaster Management UNGRD. . This is due to the appointment of Luis Fernando Velasco, who until now was the director in charge of the entity as the new Minister of the Interior, taking advantage of his extensive experience in Congress, with which he now has the mission of moving forward in the legislature the reforms presented by the Government. Read Nevado del Ruiz Volcano LIVE calls not to lower our guard over the activityIn this way, the UNGRD would be left without a head, which is striking if one takes into account that this entity is in charge of coordinating with the municipalities the different prevention actions against a possible eruption of the Nevado del Ruiz volcanoAnd it is worth remembering that according to the latest report from the Colombian Geological System SGC, the activity of the Nevado del Ruiz volcano continues to be very unstable both in terms of its seismic activity and its thermal anomalies, so there continues to be a high chance of eruption. . It should be remembered that Velasco was appointed as head of the UNGRD at the same time that he served as high presidential adviser for the regions. In this way, according to what EL TIEMPO was able to learn from the entity, it is still not known if he will continue to be in charge of it while serving as minister or if, on the contrary, he will get rid of said functions completely. . In addition, the reasons that explain the departures of the Petro government ministers. . If it moved away from Risks and Disasters, this institution would have been left without its second director in a little over a month. It should be remembered that at the end of March the previous director Javier Pava Sánchez was removed from his position days after the Office of the Attorney General of the Nation announced that would open an investigation against him for the floods of La Mojana in Sucre and BolívarENVIRONMENTAL EDITORIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-aumento-la-energia-sismica-dentro-del-volcan-762928
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano further increased the seismic energy within the volcano</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service reported in its most recent report on the activity of the Nevado del Ruiz volcano that the seismic activity related to the movement of fluids within the volcano increased compared to April 24, which had already increased compared to the previous day. . Also read Nevado del Ruiz Volcano LIVE ash column reached 25 kilometers high The maximum height of the column of gases and/or ash observed was 2500 meters measured from the top of the volcano corresponding to the ash emission registered yesterday at 0748 m in the direction of dispersion of the column towards the northwest which was visible from several municipalities of Tolima Caldas and Risaralda thanks to the favorable atmospheric conditions indicated the SGC in its most recent report. . More news from the Nevado del Ruiz volcano Geological Service explains what a possible eruption would be like. In addition, the SGC pointed out that both the important thermal anomalies at the bottom of the crater, which could be observed from satellite monitoring platforms, as well as the degassing of sulfur dioxide into the atmosphere and the release of water vapor in the volcano continue. . In addition There is a crack in the Nevado del Ruiz volcano This is the real reason The activity of the Nevado del Ruiz volcano continues to be very unstable It is possible that the levels of seismic activity as well as the levels of degassing or ash output may decrease or be oscillating in the direction to increase some days and decrease others However, this does not imply that the volcano has returned to its normal levels of activity, they concluded from the entity DUVÁN ÁLVAREZ. Editor of NACIÓN EL TIEMPO You like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/en-vivo-volcan-nevado-del-ruiz-temblores-y-ceniza-mantienen-alerta-naranja-762402
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano LIVE ash column reached 2 kilometers high</t>
+  </si>
+  <si>
+    <t>The Nevado del Ruiz volcano has completed more than 27 days with the level of activity in orange, which means that there is a probability of an eruption in the coming days or weeks. The preventive evacuation in some areas has not been as expected, in fact, in Tolima de las mil families that must go out only 102 have done itRead also An earthquake could occur if there is an eruption of Nevado del Ruiz SGC clarifiesThe activity of volcanoes is unpredictable, we cannot say that it will behave as it did in 1985 but it has the potential to erupt of that size, stated John Londoño, director of Geothreats of the SCGA. In addition, if there is an eruption of the Nevado del Ruiz volcano, tap water can be consumed, as one must not let down one's guard, the call from the authorities is to follow the recommendations of the relief agencies, stay informed and avoid falling into false content that can circulate on social networks such as a myth about an earthquake They say that if there is a large eruption there will be an earthquake that will destroy Manizales That is false informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-aumento-la-energia-sismica-dentro-del-volcan-762501
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano increased seismic activity inside the SGC volcano</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service reported in its most recent report on the activity of the Nevado del Ruiz volcano that the seismic activity related to the movement of fluids inside the volcano increased with respect to April 23 and has been associated with several pulsatile ash emissions that were confirmed through the web cameras used for volcanic monitoring. . Also read Nevado del Ruiz Volcano LIVE ash column reached 2 kilometers high The maximum height of the column of gases and/or ash observed was 2200 meters measured from the top of the volcano In addition, the degassing of sulfur dioxide into the atmosphere and the outlet continues of water vapor in the volcano indicated from the SGC. . More news from the Nevado del Ruiz volcano Geological Service explains what a possible eruption would be like Due to this, the entity pointed out that the activity of the Nevado del Ruiz volcano continues to be very unstable It is possible that the levels of seismic activity as well as the levels of degassing or output of ash decrease or are oscillatory in the sense of increasing on some days and decreasing on others. However, this does not imply that the volcano has returned to its normal levels of activity, they assured. . In addition, there is a crack in the Nevado del Ruiz volcano. This is the real reason. Finally, the SGC specified that although it is not always possible to detect thermal anomalies from satellite monitoring platforms, mainly due to bad weather, this does not mean that they are not still present in the bottom of the craterDUVÁN ÁLVAREZ. Editor of NACIÓN EL TIEMPO You like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-que-significa-falla-en-internet-o-telefonia-762562
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz Volcano Lightning and telephone failures are signs of eruption</t>
+  </si>
+  <si>
+    <t>Evacuate now This is the forceful message from Luis Fernando Velasco, director in charge of the National Unit for Disaster Risk Management for the communities that have not wanted to leave the area of ​​influence of the Nevado del Ruiz volcano, which continues on orange alert due to the possibility of an eruptionLea Volcán Nevado del Ruiz LIVE column of ash reached 2 kilometers highThere are five municipalities prioritized for evacuation Herveo Murillo Casabianca and Villahermosa in Tolima and Villamaría in Caldas However, in some of the villages where the risk map shows greater caution there are still residents who refuse to evacuate. In some of these villages, such as La Cabaña, which is the community in the municipality of Murillo closest to the volcano, the peasants affirmed that the cell phone signal is very bad. In addition, an earthquake could occur if there is an eruption of the volcano. Nevado del Ruiz SGC clarifiesThe cell phone signal is sometimes useful and calls come in or out without a problem but there are terrible days because we were left without a signal for 4 and 6 hours, said a resident of this areaOn the other hand, a rumor emerged on social networks that the increasing energy of the crater supposedly brings interference to satellite communications from cell phones, television, and the Internet. They also pointed out that it was another sign of a possible eruption. EL TIEMPO consulted John Jairo Sánchez, a geologist and professor at the National University, who explained the truth about some phenomena that occur in an active volcano as is the case of Nevado del RuizAlso If there is an eruption of the Nevado del Ruiz volcano, tap water can be consumedFor Sánchez in these areas, being so remote there are difficulties with telephone signals When one goes up to those regions that are In rural areas, communication coverage is complicated. As you get further away, you experience that the signal becomes weaker. there are no signs, it is a symptom that the volcano is going to erupt explainsIn fact Sánchez asked to always be very attentive and attached to the information from the SGC as an official sourceThe area where Nevado del Ruiz is located is generally prone to rain, a phenomenon that can cause electrical storms in the surroundings but these are not necessarily associated with the volcano, he said SánchezFor the expert, these are phenomena associated with the weather. However, according to Sánchez, electrical storms could occur when a volcano erupts with a large amount of ash ejected into the atmosphere for several kilometers. It is possible that this material generates processes that eventually end in the generation of electrical dischargesIn other words it is very common that when a volcano erupts a small local storm occurs as a microclimate with electrical discharges because of this, Lea Nevado del Ruiz Volcano pointed out of a thousand people who must evacuate only 102 have done soHowever, he indicated that This only happens when there is a large volcanic eruption. In the case of ash columns like the one on Tuesday, about two kilometers high, it does not have enough material to cause an electrical discharge. The SGC has reiterated that Nevado del Ruiz is a volcano that has been in eruption for approximately 10 years but all the eruptions that it has made in this period have been minor and its affectation has been limited to ash fall in different places depending on the direction of the wind LATEST NEWS EDITORIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-si-hay-erupcion-se-puede-tomar-agua-de-la-llave-762486
+</t>
+  </si>
+  <si>
+    <t>If there is an eruption of the Nevado del Ruiz volcano, you can drink tap water</t>
+  </si>
+  <si>
+    <t>As the days go by, the activity of the Nevado del Ruiz volcano remains orange The outflow of ash, the thermal anomalies of the Arenas crater and the earthquakes within the volcanic complex are just some signs of instability as they tend to oscillateFollow the coverage of the Nevado del Ruiz Volcano Ruiz LIVE ash column reached 2 kilometers highAmid the monitoring work of the Colombian Geological Service SGC and the Disaster Risk Management authorities, false forecasts circulate on social networks about what could happen in the event of an eruptionHere are some myths and truthsFalse According to John Londoño director of Geothreats of the SGC some say that if there is a large eruption there will be an earthquake that will destroy Manizales That is false According to the authorities the earthquakes related to an eruption occur inside the volcanoKeep reading Nevado Volcano del Ruiz is emitting sulfur dioxide what does this meanDepends on the area you are in and if it is drinkable The National Unit for Disaster Risk Management recommends avoiding consuming water from rivers or mountain streams or near the volcano as it may be ContaminatedIn contrast, in municipalities and cities the water before leaving the tap supplies a purification process that eliminates the ash allowing its daily consumption, mentions the Government of CaldasIn addition to the Nevado del Ruiz Volcano The earthquakes in the crater are what most worries SGCFalse As explained the Mayor's Office of Manizales and the SGC the city would only be affected by ash fall In fact, the official risk map indicates that the rock fragments could be transported by ballistic projection and deposited in the nearby parts of the volcano at distances of less than 10 kilometers from the point of emissionFalse The neighbors of the Nevado del Ruiz volcano are the Cerro Bravo Cerro Machín and the Nevado de Santa Isabel but their activity is completely unrelatedIn this case we are talking about the volcanic edifices that are maximum the six or seven kilometers most superficial of the bark there the Nevado del Ruiz is a completely independent element of the Cerro Machín volcano so that this myth that if the Nevado del Ruiz is activated, other volcanoes such as Tolima, Cerro Bravo and others are also totally false, he pointed out. Londoño del SGC Expand here Nevado del Ruiz An eruption could activate other volcanoes The SGC explains If there is an evacuation order in your area, you must go to the places indicated by the authorities If there is no evacuation order for areas that are several kilometers away, such as the city of Manizales The authorities recommend being at home because the ash could cause respiratory and eye problems, as well as the roads could become dangerous and smooth. In the event of an ash fall, the National Unit for Disaster Risk Management advises using N95 masks and closing all windows, doors and openings through which the material can enter If there are some spaces around the windows and doors, cover them with damp clothsYou can read Why they report noises in the Nevado del Ruiz volcano at dawn SGC explainsFalse Earthquakes and other aspects may vary but that does not mean that it will to make an imminent eruption, the authorities specify So the monitoring to lower or raise the level of activity will continue To change the level and return to the yellow level, a prudential time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity says the SGCThe lava flows are generated in areas surrounding the crater of the volcano, the authorities specify. As the risk map contemplates, they would reach rural areas in the upper part of the municipalities of Villamaría, Herveo, Casabianca, Villahermosa, Murillo, Tolima, and Santa Rosa de Cabal, Risaralda, yes. It should be noted that everything depends on the magnitude of this phenomenonEnlarge Map if Nevado del Ruiz volcano erupts these places would be at risk Luis Alfredo Garavito has eye cancer this is the revealing photo in prison An earthquake could occur if there is an eruption of Nevado del Ruiz SGC clarifies Nevado del Ruiz Volcano of a thousand people who must evacuate only 102 have done so Worrying warnings about the artificial intelligence of Yuval Noah Harari LATEST NEWS EDITORIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-podria-ocurrir-un-terremoto-si-hace-eupcion-762170
+</t>
+  </si>
+  <si>
+    <t>An earthquake could occur if there is an eruption of Nevado del Ruiz SGC clarifies</t>
+  </si>
+  <si>
+    <t>The Nevado del Ruiz volcano has completed more than 26 days with the level of activity in orange, which means that there is a probability of an eruption in the coming days or weeks. The earthquakes have oscillated in the last few days, that is, they have increased or decreased, so the authorities ratify its instabilityFollow the coverage Nevado del Ruiz Volcano LIVE in emergency peasants complain about the signalIt is likely to explode in days or weeks No one can say when Another option is for it to calm down and not erupt We are acting almost like if there were to be an eruption, said Luis Fernando Velasco, director in charge of the National Unit for Disaster Risk Management, UNGRD, as one must not lower one's guard, the call from the authorities is to follow the recommendations of the relief agencies, stay informed and avoid falling in false content that can circulate through social networksIn fact, to clarify the information that has alarmed some, the Colombian Geological Service referred to the possibility of the occurrence of an earthquakeAlso Map if Nevado del Ruiz volcano erupts these places would be at riskThey say that if there is a large eruption is going to have an earthquake that will destroy Manizales That is false, expressed John Londoño director of Geothreats of the SCG on the Institutional ChannelIn this sense, once again he asked Colombians not to fall into chains that can be sent by messaging applications To be Pay attention minute by minute the SGC monitors the activity with technological resources that it did not have in 1985 when the eruption buried ArmeroKeep reading Nevado del Ruiz the impressive aerial images of how the volcano is The activity of volcanoes is unpredictable we cannot say that it will behave As it did in 1985, but it has the potential to make an eruption of that size, he specified, as Londoño explained, to lower the level of activity to yellow, they are attentive to how the material magma that is at the bottom of the crater evolves and that seeks an exit by generating earthquakes and rock fracturing The change from orange to yellow level requires a prudential time where trends and patterns can be observed that allow us to infer the possible decrease in activity which can last several weeks Nevado del Ruiz Volcano is emitting sulfur dioxide what does it mean Despite a possible eruption, the mayor prepares the Nevado del Ruiz volcano festival Why are they reporting noises in the Nevado del Ruiz volcano at dawn SGC explains Nevado del Ruiz is a critical patient It could be known when it would erupt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/campesinos-cerca-al-nevado-del-ruiz-denuncian-mala-senal-762319
+</t>
+  </si>
+  <si>
+    <t>Peasants denounce poor communication service in the area of ​​the volcano</t>
+  </si>
+  <si>
+    <t>Communication deficiencies are a constant in the rural areas of the Tolima municipalities located near the Nevado del Ruiz Volcano, mainly in the municipalities of Murillo, Villahermosa, Herveo and Casabianca. . In La Cabaña, the village of the municipality of Murillo closest to the volcano, the peasants affirmed that the cell phone signal is very bad. . Continue reading The Ombudsman's Office alerted about 266 displaced people in BuenaventuraThe cell phone signal sometimes works and calls come in or out without a problem but there are terrible days because we were left without a signal for 4 and 6 hours, assured inhabitants of this cold region that is more than 4,000 meters high and 2 kilometers from the volcano. . The Internet signal is also deficient. I hope they will fix that, especially in these days of emergency due to the high seismicity of the volcano, said Enrique García, president of the Community Action Board. . Farmer Edward Ariza says that his cell phone signal only works inside my house if I leave the device dead without a signal. . He added that in the event of an eruption emergency it would be impossible to report changes in the volcano's behavior due to serious deficiencies in communications. . The mayor of the municipality of Murillo Antonio José García pointed out that this region urgently needs an AM station because many rural people do not use digital media but do turn to the radio. . César Augusto Restrepo, mayor of Villahermosa, also called for greater attention and a solution to the difficulties we have in communication issues. . Other inhabitants of the north of Tolima also asked Celsia for a better provision of the electrical service since we have many difficulties due to electrical deficiencies in these municipalities. . The requests for better communications were presented at a meeting between the mayors of Murillo Villahermosa Herveo and Casabianca with the government of Tolima Ministry of ICT Internet and cell phone operators The meeting was coordinated by Andrea Mallorquín, director of Risk Management in Tolima and Carlos Sánchez director of Information Technology and ICT Communications in the department. . We work together with the operators to improve connectivity and communications in the department, but especially in the northern municipalities of Tolima close to the volcano where its inhabitants launched an SOS asking for help, assured Carlos Sánchez, ICT director of Tolima. You like to be informed Enjoy the best content without limits Subscribe here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/en-vivo-volcan-nevado-del-ruiz-en-alerta-naranja-ultimas-noticias-762033
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano new earthquake of magnitude 17</t>
+  </si>
+  <si>
+    <t>The Nevado del Ruiz volcano is still at an orange level of activity, which means that there is a probability of an eruption in the coming days or weeks. unites the emission of sulfur dioxide According to the Colombian Geological Service SG, this phenomenon indicates that the volcano system is not completely closed. If it were closed, the gases inside it would accumulate, making the probability of an eruption increase exponentially. earthquake with eruption of the Nevado del Ruiz Volcano SGC clarifies The authorities call not to let your guard down and follow the recommendations of the relief agencies, especially in areas surrounding the volcano where some inhabitants have not evacuated Follow the minute by minute of this April 24 2023 LATEST NEWS EDITORIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/volcan-nevado-del-ruiz-solo-102-personas-han-evacuado-en-el-tolima-762207
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano of a thousand people who must evacuate only 102 have done so</t>
+  </si>
+  <si>
+    <t>Neither the permanent fall of ash nor the high number of earthquakes, much less the fumaroles over 1,500 meters high, seem to worry many of the peasant families in the department of Tolima who live in areas surrounding the Nevado del Ruiz volcano, which remains on alert. orange. . Follow the coverage Nevado del Ruiz Volcano LIVE in emergency peasants complain about the signal This was confirmed by the Risk Management office when corroborating that of 1000 people who must leave their homes and villages located within a radius of 15 kilometers from the volcano only 102 have evacuated or 10 percent. . We recommend reading Nevado del Ruiz is not the only one, these are other volcanoes that threaten the Axis. Andrea Mallorquín, director of Risk Management in Tolima, pointed out that the paths at high risk due to their proximity to the volcano belong to the municipalities of Murillo, Villahermosa, Herveo and Casabianca, El Mayor. The risk is from being close to the volcano, since in the event of an eruption there could be a rock fall, the official assured. . From Villahermosa, 31 people have evacuated from the villages of Betulia, Rocío Entrevalles and Mina Pobre. In Herveo, 15 people evacuated, as well as 2 from Casabianca and 54 in Murillo, which is the closest municipality to that peak. . More news An earthquake could occur with an eruption of the Nevado del Ruiz Volcano SGC clarifies. . The families that evacuated preventively live with their relatives in urban areas but the head of the household goes up to the farm during the day to feed his animals and at night he returns with his family, said the director of Risk Management Murillo's high-risk families Herveo Villahermosa and Casabianca have their reasons for not going out because most of them, although they are worried about what might happen, feel calm since they lived through the experience of the eruption of this volcano in 1985 when the avalanche of stone, mud and snow descended the Lagunilla river. and devastated the population of Armero. . Other peasants do not leave their farms for fear of crime that steals their belongings but what worries them most is leaving their cows and poultry alone and without food, which would lose weight and also fall into the hands of thieves. . In addition, Nevado del Ruiz Volcano continues with thermal anomalies at the bottom of the crater. What are the authorities doing to make the evacuation effective? Andrea Mallorquín responds that in the areas surrounding the volcano, the departmental government has 200 people trained in this type of emergency and their task is to presence in that territory to guide the community and that each person knows what to do if the volcano changes its activity. . Regarding direct aid, for example, for agriculture, the government of Tolima in conjunction with the National Unit for Disaster Risk Management, UNGRD has stocks of food for animals, but it is also planned to turn economic incentives for motorcycle fuel. and vehiclesFABIO ARENAS. For the time. IBAGUÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eltiempo.com/colombia/otras-ciudades/nevado-del-ruiz-hoy-siguen-anomalias-termicas-en-el-fondo-del-crater-762146
+</t>
+  </si>
+  <si>
+    <t>Nevado del Ruiz volcano continues thermal anomalies at the bottom of the crater</t>
+  </si>
+  <si>
+    <t>The Colombian Geological Service reported in its most recent report on the activity of the Nevado del Ruiz volcano that the seismic activity associated with rock fracturing inside the volcanic edifice and that associated with the movement of fluids inside the conduits was similar in terms of number. and seismic energy with respect to April 22. . Also read Nevado del Ruiz Volcano LIVE report incandescent ash emission The earthquakes associated with rock fracturing were located mainly in the south-southeast and east-northeast sectors of the volcano as well as in the Arenas crater at depths between 04 and 4 kilometers, they said. . In addition, there is a crack in the Nevado del Ruiz volcano. This is the real reason. They also specified that the maximum magnitude registered was 08 corresponding to the earthquake registered on April 23 at 0920 am, which was located 06 kilometers to the east-northeast of the volcano, 35 km deep. . Likewise, the maximum height of the column of gases and/or ash observed was 1400 meters measured from the top of the volcano with a dispersion direction that oscillated between the east and southeast. Thermal anomalies continue at the bottom of the crater, which can be observed from observation platforms. satellite monitoring added from the SGC. . More news from the Nevado del Ruiz volcano Nevado del Ruiz Geological Service explains what a possible eruption would be like Finally, regarding the output of sulfur dioxide into the atmosphere, the SGC confirmed that it maintained levels similar to previous days All these indicators ratify what since the SGC we have reiterated that the activity of the Nevado del Ruiz volcano continues to be very unstable concluded DUVÁN ÁLVAREZ. Editor of NACIÓN EL TIEMPO You like to be informed Enjoy the best content without limits Subscribe here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,7 +513,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -353,30 +521,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,25 +829,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="151.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -745,7 +896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -973,29 +1124,238 @@
         <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
